--- a/teaching/traditional_assets/database/data/israel/israel_restaurant_dining.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_restaurant_dining.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="tase_cfx" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,23 +592,26 @@
           <t>Restaurant/Dining</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.222</v>
+      </c>
       <c r="G2">
-        <v>-0.02194199243379571</v>
+        <v>0.01319612590799032</v>
       </c>
       <c r="H2">
-        <v>-0.02194199243379571</v>
+        <v>0.01319612590799032</v>
       </c>
       <c r="I2">
-        <v>-0.03505674653215637</v>
+        <v>0.01092009685230024</v>
       </c>
       <c r="J2">
-        <v>-0.03505674653215637</v>
+        <v>0.01092009685230024</v>
       </c>
       <c r="K2">
-        <v>-3.26</v>
+        <v>-1.4</v>
       </c>
       <c r="L2">
-        <v>-0.04110970996216898</v>
+        <v>-0.01694915254237288</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6.94</v>
+        <v>5.22</v>
       </c>
       <c r="V2">
-        <v>0.2551470588235294</v>
+        <v>0.09630996309963098</v>
       </c>
       <c r="W2">
-        <v>-0.2012345679012346</v>
+        <v>-0.115702479338843</v>
       </c>
       <c r="X2">
-        <v>0.09648627920179484</v>
+        <v>0.08310101097552933</v>
       </c>
       <c r="Y2">
-        <v>-0.2977208471030294</v>
+        <v>-0.1988034903143723</v>
       </c>
       <c r="Z2">
-        <v>5.179621162638798</v>
+        <v>2.103922567498726</v>
       </c>
       <c r="AA2">
-        <v>-0.1815806662312214</v>
+        <v>0.02297503820682628</v>
       </c>
       <c r="AB2">
-        <v>0.05998201452604435</v>
+        <v>0.06105874926117853</v>
       </c>
       <c r="AC2">
-        <v>-0.2415626807572658</v>
+        <v>-0.03808371105435224</v>
       </c>
       <c r="AD2">
-        <v>34.1</v>
+        <v>36</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>34.1</v>
+        <v>36</v>
       </c>
       <c r="AG2">
-        <v>27.16</v>
+        <v>30.78</v>
       </c>
       <c r="AH2">
-        <v>0.5562805872756934</v>
+        <v>0.3991130820399113</v>
       </c>
       <c r="AI2">
-        <v>0.7429193899782135</v>
+        <v>0.7725321888412017</v>
       </c>
       <c r="AJ2">
-        <v>0.4996320824135394</v>
+        <v>0.3622028712638268</v>
       </c>
       <c r="AK2">
-        <v>0.6971252566735113</v>
+        <v>0.7438376027066216</v>
       </c>
       <c r="AL2">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
       <c r="AM2">
-        <v>2.224</v>
+        <v>1.844</v>
       </c>
       <c r="AN2">
-        <v>22.14285714285714</v>
+        <v>10.97560975609756</v>
       </c>
       <c r="AO2">
-        <v>-1.241071428571428</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="AP2">
-        <v>17.63636363636364</v>
+        <v>9.384146341463415</v>
       </c>
       <c r="AQ2">
-        <v>-1.25</v>
+        <v>0.4891540130151844</v>
       </c>
     </row>
     <row r="3">
@@ -715,23 +720,26 @@
           <t>Restaurant/Dining</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.222</v>
+      </c>
       <c r="G3">
-        <v>-0.02194199243379571</v>
+        <v>0.01319612590799032</v>
       </c>
       <c r="H3">
-        <v>-0.02194199243379571</v>
+        <v>0.01319612590799032</v>
       </c>
       <c r="I3">
-        <v>-0.03505674653215637</v>
+        <v>0.01092009685230024</v>
       </c>
       <c r="J3">
-        <v>-0.03505674653215637</v>
+        <v>0.01092009685230024</v>
       </c>
       <c r="K3">
-        <v>-3.26</v>
+        <v>-1.4</v>
       </c>
       <c r="L3">
-        <v>-0.04110970996216898</v>
+        <v>-0.01694915254237288</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +763,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6.94</v>
+        <v>5.22</v>
       </c>
       <c r="V3">
-        <v>0.2551470588235294</v>
+        <v>0.09630996309963098</v>
       </c>
       <c r="W3">
-        <v>-0.2012345679012346</v>
+        <v>-0.115702479338843</v>
       </c>
       <c r="X3">
-        <v>0.09648627920179484</v>
+        <v>0.08310101097552933</v>
       </c>
       <c r="Y3">
-        <v>-0.2977208471030294</v>
+        <v>-0.1988034903143723</v>
       </c>
       <c r="Z3">
-        <v>5.179621162638798</v>
+        <v>2.103922567498726</v>
       </c>
       <c r="AA3">
-        <v>-0.1815806662312214</v>
+        <v>0.02297503820682628</v>
       </c>
       <c r="AB3">
-        <v>0.05998201452604435</v>
+        <v>0.06105874926117853</v>
       </c>
       <c r="AC3">
-        <v>-0.2415626807572658</v>
+        <v>-0.03808371105435224</v>
       </c>
       <c r="AD3">
-        <v>34.1</v>
+        <v>36</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>34.1</v>
+        <v>36</v>
       </c>
       <c r="AG3">
-        <v>27.16</v>
+        <v>30.78</v>
       </c>
       <c r="AH3">
-        <v>0.5562805872756934</v>
+        <v>0.3991130820399113</v>
       </c>
       <c r="AI3">
-        <v>0.7429193899782135</v>
+        <v>0.7725321888412017</v>
       </c>
       <c r="AJ3">
-        <v>0.4996320824135394</v>
+        <v>0.3622028712638268</v>
       </c>
       <c r="AK3">
-        <v>0.6971252566735113</v>
+        <v>0.7438376027066216</v>
       </c>
       <c r="AL3">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
       <c r="AM3">
-        <v>2.224</v>
+        <v>1.844</v>
       </c>
       <c r="AN3">
-        <v>22.14285714285714</v>
+        <v>10.97560975609756</v>
       </c>
       <c r="AO3">
-        <v>-1.241071428571428</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="AP3">
-        <v>17.63636363636364</v>
+        <v>9.384146341463415</v>
       </c>
       <c r="AQ3">
-        <v>-1.25</v>
+        <v>0.4891540130151844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cofix Group Ltd (TASE:CFX)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TASE:CFX</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Restaurant/Dining</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.399113082039911</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>54.2</v>
+      </c>
+      <c r="H2">
+        <v>91.4240315382289</v>
+      </c>
+      <c r="I2">
+        <v>84.98</v>
+      </c>
+      <c r="J2">
+        <v>90.71403153822889</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>4.51</v>
+      </c>
+      <c r="M2">
+        <v>0.0610587492611785</v>
+      </c>
+      <c r="N2">
+        <v>0.0577870800870684</v>
+      </c>
+      <c r="O2">
+        <v>0.0278728996801282</v>
+      </c>
+      <c r="P2">
+        <v>0.013706</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0831010109755293</v>
+      </c>
+      <c r="T2">
+        <v>0.0601071369337562</v>
+      </c>
+      <c r="U2">
+        <v>1.36630391657718</v>
+      </c>
+      <c r="V2">
+        <v>0.940610287922499</v>
+      </c>
+      <c r="W2">
+        <v>11.23595505617977</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>54.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.05401507679229468</v>
+      </c>
+      <c r="AC2">
+        <v>0.03619857101315345</v>
+      </c>
+      <c r="AD2">
+        <v>0.23</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>3.28</v>
+      </c>
+      <c r="AH2">
+        <v>2.378</v>
+      </c>
+      <c r="AI2">
+        <v>7.118</v>
+      </c>
+      <c r="AJ2">
+        <v>36</v>
+      </c>
+      <c r="AK2">
+        <v>36</v>
+      </c>
+      <c r="AL2">
+        <v>2.31</v>
+      </c>
+      <c r="AM2">
+        <v>36</v>
+      </c>
+      <c r="AN2">
+        <v>5.22</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05812830560148546</v>
+      </c>
+      <c r="C2">
+        <v>95.30009714924738</v>
+      </c>
+      <c r="D2">
+        <v>90.08009714924738</v>
+      </c>
+      <c r="E2">
+        <v>-36</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5.22</v>
+      </c>
+      <c r="H2">
+        <v>54.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3.28</v>
+      </c>
+      <c r="K2">
+        <v>2.378</v>
+      </c>
+      <c r="L2">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.20746</v>
+      </c>
+      <c r="P2">
+        <v>0.6945400000000002</v>
+      </c>
+      <c r="Q2">
+        <v>3.07254</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05812830560148546</v>
+      </c>
+      <c r="T2">
+        <v>0.903975491680702</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.23</v>
+      </c>
+      <c r="W2">
+        <v>0.012474</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05804774049860204</v>
+      </c>
+      <c r="C3">
+        <v>94.546971993914</v>
+      </c>
+      <c r="D3">
+        <v>90.228971993914</v>
+      </c>
+      <c r="E3">
+        <v>-35.098</v>
+      </c>
+      <c r="F3">
+        <v>0.902</v>
+      </c>
+      <c r="G3">
+        <v>5.22</v>
+      </c>
+      <c r="H3">
+        <v>54.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.28</v>
+      </c>
+      <c r="K3">
+        <v>2.378</v>
+      </c>
+      <c r="L3">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.0146124</v>
+      </c>
+      <c r="N3">
+        <v>0.8873876000000002</v>
+      </c>
+      <c r="O3">
+        <v>0.204099148</v>
+      </c>
+      <c r="P3">
+        <v>0.6832884520000001</v>
+      </c>
+      <c r="Q3">
+        <v>3.061288452</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05850808131171924</v>
+      </c>
+      <c r="T3">
+        <v>0.911006412171552</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.23</v>
+      </c>
+      <c r="W3">
+        <v>0.012474</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>61.72839506172841</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05796717539571864</v>
+      </c>
+      <c r="C4">
+        <v>93.79433974235319</v>
+      </c>
+      <c r="D4">
+        <v>90.37833974235319</v>
+      </c>
+      <c r="E4">
+        <v>-34.196</v>
+      </c>
+      <c r="F4">
+        <v>1.804</v>
+      </c>
+      <c r="G4">
+        <v>5.22</v>
+      </c>
+      <c r="H4">
+        <v>54.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3.28</v>
+      </c>
+      <c r="K4">
+        <v>2.378</v>
+      </c>
+      <c r="L4">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.0292248</v>
+      </c>
+      <c r="N4">
+        <v>0.8727752000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.200738296</v>
+      </c>
+      <c r="P4">
+        <v>0.672036904</v>
+      </c>
+      <c r="Q4">
+        <v>3.050036904</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05889560754665167</v>
+      </c>
+      <c r="T4">
+        <v>0.9181808208356845</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.23</v>
+      </c>
+      <c r="W4">
+        <v>0.012474</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>30.8641975308642</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05788661029283521</v>
+      </c>
+      <c r="C5">
+        <v>93.04220284652718</v>
+      </c>
+      <c r="D5">
+        <v>90.52820284652718</v>
+      </c>
+      <c r="E5">
+        <v>-33.294</v>
+      </c>
+      <c r="F5">
+        <v>2.706</v>
+      </c>
+      <c r="G5">
+        <v>5.22</v>
+      </c>
+      <c r="H5">
+        <v>54.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3.28</v>
+      </c>
+      <c r="K5">
+        <v>2.378</v>
+      </c>
+      <c r="L5">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.0438372</v>
+      </c>
+      <c r="N5">
+        <v>0.8581628000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.197377444</v>
+      </c>
+      <c r="P5">
+        <v>0.6607853560000001</v>
+      </c>
+      <c r="Q5">
+        <v>3.038785356</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05929112401323218</v>
+      </c>
+      <c r="T5">
+        <v>0.9255031554516548</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.23</v>
+      </c>
+      <c r="W5">
+        <v>0.012474</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>20.5761316872428</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05780604518995179</v>
+      </c>
+      <c r="C6">
+        <v>92.2905637746882</v>
+      </c>
+      <c r="D6">
+        <v>90.6785637746882</v>
+      </c>
+      <c r="E6">
+        <v>-32.392</v>
+      </c>
+      <c r="F6">
+        <v>3.608</v>
+      </c>
+      <c r="G6">
+        <v>5.22</v>
+      </c>
+      <c r="H6">
+        <v>54.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3.28</v>
+      </c>
+      <c r="K6">
+        <v>2.378</v>
+      </c>
+      <c r="L6">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.0584496</v>
+      </c>
+      <c r="N6">
+        <v>0.8435504000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.194016592</v>
+      </c>
+      <c r="P6">
+        <v>0.6495338080000002</v>
+      </c>
+      <c r="Q6">
+        <v>3.027533808</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05969488040619979</v>
+      </c>
+      <c r="T6">
+        <v>0.9329780387054578</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.23</v>
+      </c>
+      <c r="W6">
+        <v>0.012474</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>15.4320987654321</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05778708008706838</v>
+      </c>
+      <c r="C7">
+        <v>91.4240315382289</v>
+      </c>
+      <c r="D7">
+        <v>90.71403153822891</v>
+      </c>
+      <c r="E7">
+        <v>-31.49</v>
+      </c>
+      <c r="F7">
+        <v>4.510000000000001</v>
+      </c>
+      <c r="G7">
+        <v>5.22</v>
+      </c>
+      <c r="H7">
+        <v>54.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3.28</v>
+      </c>
+      <c r="K7">
+        <v>2.378</v>
+      </c>
+      <c r="L7">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.08027800000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.8217220000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.18899606</v>
+      </c>
+      <c r="P7">
+        <v>0.63272594</v>
+      </c>
+      <c r="Q7">
+        <v>3.010725939999999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06010713693375619</v>
+      </c>
+      <c r="T7">
+        <v>0.9406102879224989</v>
+      </c>
+      <c r="U7">
+        <v>0.0178</v>
+      </c>
+      <c r="V7">
+        <v>0.23</v>
+      </c>
+      <c r="W7">
+        <v>0.013706</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>11.23595505617977</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05782047498418496</v>
+      </c>
+      <c r="C8">
+        <v>90.45959633430236</v>
+      </c>
+      <c r="D8">
+        <v>90.65159633430237</v>
+      </c>
+      <c r="E8">
+        <v>-30.588</v>
+      </c>
+      <c r="F8">
+        <v>5.412</v>
+      </c>
+      <c r="G8">
+        <v>5.22</v>
+      </c>
+      <c r="H8">
+        <v>54.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3.28</v>
+      </c>
+      <c r="K8">
+        <v>2.378</v>
+      </c>
+      <c r="L8">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.10824</v>
+      </c>
+      <c r="N8">
+        <v>0.7937600000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1825648</v>
+      </c>
+      <c r="P8">
+        <v>0.6111952</v>
+      </c>
+      <c r="Q8">
+        <v>2.9891952</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06052816487679251</v>
+      </c>
+      <c r="T8">
+        <v>0.9484049254207534</v>
+      </c>
+      <c r="U8">
+        <v>0.02</v>
+      </c>
+      <c r="V8">
+        <v>0.23</v>
+      </c>
+      <c r="W8">
+        <v>0.0154</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05782845988130154</v>
+      </c>
+      <c r="C9">
+        <v>89.54268047519716</v>
+      </c>
+      <c r="D9">
+        <v>90.63668047519717</v>
+      </c>
+      <c r="E9">
+        <v>-29.686</v>
+      </c>
+      <c r="F9">
+        <v>6.314000000000001</v>
+      </c>
+      <c r="G9">
+        <v>5.22</v>
+      </c>
+      <c r="H9">
+        <v>54.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3.28</v>
+      </c>
+      <c r="K9">
+        <v>2.378</v>
+      </c>
+      <c r="L9">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.1332254</v>
+      </c>
+      <c r="N9">
+        <v>0.7687746000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.176818158</v>
+      </c>
+      <c r="P9">
+        <v>0.5919564420000001</v>
+      </c>
+      <c r="Q9">
+        <v>2.969956442</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06095824718419521</v>
+      </c>
+      <c r="T9">
+        <v>0.9563671895318738</v>
+      </c>
+      <c r="U9">
+        <v>0.0211</v>
+      </c>
+      <c r="V9">
+        <v>0.23</v>
+      </c>
+      <c r="W9">
+        <v>0.016247</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>6.770480704129993</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05787802477841814</v>
+      </c>
+      <c r="C10">
+        <v>88.54820249233897</v>
+      </c>
+      <c r="D10">
+        <v>90.54420249233897</v>
+      </c>
+      <c r="E10">
+        <v>-28.784</v>
+      </c>
+      <c r="F10">
+        <v>7.216</v>
+      </c>
+      <c r="G10">
+        <v>5.22</v>
+      </c>
+      <c r="H10">
+        <v>54.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3.28</v>
+      </c>
+      <c r="K10">
+        <v>2.378</v>
+      </c>
+      <c r="L10">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.1630816</v>
+      </c>
+      <c r="N10">
+        <v>0.7389184000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.1699512320000001</v>
+      </c>
+      <c r="P10">
+        <v>0.5689671680000001</v>
+      </c>
+      <c r="Q10">
+        <v>2.946967168</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06139767910697623</v>
+      </c>
+      <c r="T10">
+        <v>0.964502546341062</v>
+      </c>
+      <c r="U10">
+        <v>0.0226</v>
+      </c>
+      <c r="V10">
+        <v>0.23</v>
+      </c>
+      <c r="W10">
+        <v>0.017402</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>5.530973451327435</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05784673967553472</v>
+      </c>
+      <c r="C11">
+        <v>87.704552130428</v>
+      </c>
+      <c r="D11">
+        <v>90.60255213042799</v>
+      </c>
+      <c r="E11">
+        <v>-27.882</v>
+      </c>
+      <c r="F11">
+        <v>8.118</v>
+      </c>
+      <c r="G11">
+        <v>5.22</v>
+      </c>
+      <c r="H11">
+        <v>54.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3.28</v>
+      </c>
+      <c r="K11">
+        <v>2.378</v>
+      </c>
+      <c r="L11">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.1834668</v>
+      </c>
+      <c r="N11">
+        <v>0.7185332000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.165262636</v>
+      </c>
+      <c r="P11">
+        <v>0.5532705640000002</v>
+      </c>
+      <c r="Q11">
+        <v>2.931270564</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06184676887421398</v>
+      </c>
+      <c r="T11">
+        <v>0.9728167022010017</v>
+      </c>
+      <c r="U11">
+        <v>0.0226</v>
+      </c>
+      <c r="V11">
+        <v>0.23</v>
+      </c>
+      <c r="W11">
+        <v>0.017402</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>4.916420845624387</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06476798355668348</v>
+      </c>
+      <c r="C12">
+        <v>75.49724915491308</v>
+      </c>
+      <c r="D12">
+        <v>79.29724915491308</v>
+      </c>
+      <c r="E12">
+        <v>-26.98</v>
+      </c>
+      <c r="F12">
+        <v>9.020000000000001</v>
+      </c>
+      <c r="G12">
+        <v>5.22</v>
+      </c>
+      <c r="H12">
+        <v>54.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3.28</v>
+      </c>
+      <c r="K12">
+        <v>2.378</v>
+      </c>
+      <c r="L12">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.9831800000000002</v>
+      </c>
+      <c r="N12">
+        <v>-0.08118000000000003</v>
+      </c>
+      <c r="O12">
+        <v>-0.01867140000000001</v>
+      </c>
+      <c r="P12">
+        <v>-0.06250860000000003</v>
+      </c>
+      <c r="Q12">
+        <v>2.3154914</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0624088706185372</v>
+      </c>
+      <c r="T12">
+        <v>0.9832230883010286</v>
+      </c>
+      <c r="U12">
+        <v>0.109</v>
+      </c>
+      <c r="V12">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="W12">
+        <v>0.08600000000000001</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06576498355668348</v>
+      </c>
+      <c r="C13">
+        <v>73.19510073676854</v>
+      </c>
+      <c r="D13">
+        <v>77.89710073676854</v>
+      </c>
+      <c r="E13">
+        <v>-26.078</v>
+      </c>
+      <c r="F13">
+        <v>9.922000000000001</v>
+      </c>
+      <c r="G13">
+        <v>5.22</v>
+      </c>
+      <c r="H13">
+        <v>54.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3.28</v>
+      </c>
+      <c r="K13">
+        <v>2.378</v>
+      </c>
+      <c r="L13">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M13">
+        <v>1.081498</v>
+      </c>
+      <c r="N13">
+        <v>-0.1794979999999999</v>
+      </c>
+      <c r="O13">
+        <v>-0.04128453999999999</v>
+      </c>
+      <c r="P13">
+        <v>-0.13821346</v>
+      </c>
+      <c r="Q13">
+        <v>2.23978654</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06300559950189155</v>
+      </c>
+      <c r="T13">
+        <v>0.9942705387313773</v>
+      </c>
+      <c r="U13">
+        <v>0.109</v>
+      </c>
+      <c r="V13">
+        <v>0.1918265221017515</v>
+      </c>
+      <c r="W13">
+        <v>0.08809090909090909</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.8340283569641369</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.0707352706308477</v>
+      </c>
+      <c r="C14">
+        <v>65.99100506873995</v>
+      </c>
+      <c r="D14">
+        <v>71.59500506873995</v>
+      </c>
+      <c r="E14">
+        <v>-25.176</v>
+      </c>
+      <c r="F14">
+        <v>10.824</v>
+      </c>
+      <c r="G14">
+        <v>5.22</v>
+      </c>
+      <c r="H14">
+        <v>54.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3.28</v>
+      </c>
+      <c r="K14">
+        <v>2.378</v>
+      </c>
+      <c r="L14">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M14">
+        <v>1.5175248</v>
+      </c>
+      <c r="N14">
+        <v>-0.6155247999999998</v>
+      </c>
+      <c r="O14">
+        <v>-0.141570704</v>
+      </c>
+      <c r="P14">
+        <v>-0.4739540959999998</v>
+      </c>
+      <c r="Q14">
+        <v>1.904045904</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06387644389869056</v>
+      </c>
+      <c r="T14">
+        <v>1.010392785491253</v>
+      </c>
+      <c r="U14">
+        <v>0.1402</v>
+      </c>
+      <c r="V14">
+        <v>0.1367094626723729</v>
+      </c>
+      <c r="W14">
+        <v>0.1210333333333333</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.5943889681407515</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07204427063084769</v>
+      </c>
+      <c r="C15">
+        <v>63.59535695246231</v>
+      </c>
+      <c r="D15">
+        <v>70.10135695246231</v>
+      </c>
+      <c r="E15">
+        <v>-24.274</v>
+      </c>
+      <c r="F15">
+        <v>11.726</v>
+      </c>
+      <c r="G15">
+        <v>5.22</v>
+      </c>
+      <c r="H15">
+        <v>54.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3.28</v>
+      </c>
+      <c r="K15">
+        <v>2.378</v>
+      </c>
+      <c r="L15">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M15">
+        <v>1.6439852</v>
+      </c>
+      <c r="N15">
+        <v>-0.7419851999999998</v>
+      </c>
+      <c r="O15">
+        <v>-0.170656596</v>
+      </c>
+      <c r="P15">
+        <v>-0.5713286039999999</v>
+      </c>
+      <c r="Q15">
+        <v>1.806671396</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06450375934580194</v>
+      </c>
+      <c r="T15">
+        <v>1.022006495669313</v>
+      </c>
+      <c r="U15">
+        <v>0.1402</v>
+      </c>
+      <c r="V15">
+        <v>0.1261933501591134</v>
+      </c>
+      <c r="W15">
+        <v>0.1225076923076923</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.548666739822232</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07335327063084771</v>
+      </c>
+      <c r="C16">
+        <v>61.26075756531122</v>
+      </c>
+      <c r="D16">
+        <v>68.66875756531122</v>
+      </c>
+      <c r="E16">
+        <v>-23.372</v>
+      </c>
+      <c r="F16">
+        <v>12.628</v>
+      </c>
+      <c r="G16">
+        <v>5.22</v>
+      </c>
+      <c r="H16">
+        <v>54.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.28</v>
+      </c>
+      <c r="K16">
+        <v>2.378</v>
+      </c>
+      <c r="L16">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M16">
+        <v>1.7704456</v>
+      </c>
+      <c r="N16">
+        <v>-0.8684456</v>
+      </c>
+      <c r="O16">
+        <v>-0.199742488</v>
+      </c>
+      <c r="P16">
+        <v>-0.668703112</v>
+      </c>
+      <c r="Q16">
+        <v>1.709296888</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.0651456635242415</v>
+      </c>
+      <c r="T16">
+        <v>1.033890292130584</v>
+      </c>
+      <c r="U16">
+        <v>0.1402</v>
+      </c>
+      <c r="V16">
+        <v>0.1171795394334624</v>
+      </c>
+      <c r="W16">
+        <v>0.1237714285714286</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.5094762584063584</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08137695501420503</v>
+      </c>
+      <c r="C17">
+        <v>52.71447739847081</v>
+      </c>
+      <c r="D17">
+        <v>61.0244773984708</v>
+      </c>
+      <c r="E17">
+        <v>-22.47</v>
+      </c>
+      <c r="F17">
+        <v>13.53</v>
+      </c>
+      <c r="G17">
+        <v>5.22</v>
+      </c>
+      <c r="H17">
+        <v>54.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3.28</v>
+      </c>
+      <c r="K17">
+        <v>2.378</v>
+      </c>
+      <c r="L17">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M17">
+        <v>2.485461</v>
+      </c>
+      <c r="N17">
+        <v>-1.583461</v>
+      </c>
+      <c r="O17">
+        <v>-0.3641960299999999</v>
+      </c>
+      <c r="P17">
+        <v>-1.21926497</v>
+      </c>
+      <c r="Q17">
+        <v>1.15873503</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0660258294284765</v>
+      </c>
+      <c r="T17">
+        <v>1.050185111216365</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.08346942478679008</v>
+      </c>
+      <c r="W17">
+        <v>0.1683666666666667</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.3629105425512612</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08312095501420502</v>
+      </c>
+      <c r="C18">
+        <v>50.37079070446293</v>
+      </c>
+      <c r="D18">
+        <v>59.58279070446294</v>
+      </c>
+      <c r="E18">
+        <v>-21.568</v>
+      </c>
+      <c r="F18">
+        <v>14.432</v>
+      </c>
+      <c r="G18">
+        <v>5.22</v>
+      </c>
+      <c r="H18">
+        <v>54.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3.28</v>
+      </c>
+      <c r="K18">
+        <v>2.378</v>
+      </c>
+      <c r="L18">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M18">
+        <v>2.6511584</v>
+      </c>
+      <c r="N18">
+        <v>-1.7491584</v>
+      </c>
+      <c r="O18">
+        <v>-0.402306432</v>
+      </c>
+      <c r="P18">
+        <v>-1.346851968</v>
+      </c>
+      <c r="Q18">
+        <v>1.031148032</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06670113692167265</v>
+      </c>
+      <c r="T18">
+        <v>1.062687314921322</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.07825258573761569</v>
+      </c>
+      <c r="W18">
+        <v>0.169325</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.3402286336418073</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08486495501420502</v>
+      </c>
+      <c r="C19">
+        <v>48.09365077393496</v>
+      </c>
+      <c r="D19">
+        <v>58.20765077393497</v>
+      </c>
+      <c r="E19">
+        <v>-20.666</v>
+      </c>
+      <c r="F19">
+        <v>15.334</v>
+      </c>
+      <c r="G19">
+        <v>5.22</v>
+      </c>
+      <c r="H19">
+        <v>54.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3.28</v>
+      </c>
+      <c r="K19">
+        <v>2.378</v>
+      </c>
+      <c r="L19">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M19">
+        <v>2.8168558</v>
+      </c>
+      <c r="N19">
+        <v>-1.9148558</v>
+      </c>
+      <c r="O19">
+        <v>-0.4404168340000001</v>
+      </c>
+      <c r="P19">
+        <v>-1.474438966</v>
+      </c>
+      <c r="Q19">
+        <v>0.9035610339999995</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06739271688458437</v>
+      </c>
+      <c r="T19">
+        <v>1.07549077654688</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.07364949245893242</v>
+      </c>
+      <c r="W19">
+        <v>0.1701705882352941</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.320215184604054</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08660895501420503</v>
+      </c>
+      <c r="C20">
+        <v>45.87855395441268</v>
+      </c>
+      <c r="D20">
+        <v>56.89455395441269</v>
+      </c>
+      <c r="E20">
+        <v>-19.764</v>
+      </c>
+      <c r="F20">
+        <v>16.236</v>
+      </c>
+      <c r="G20">
+        <v>5.22</v>
+      </c>
+      <c r="H20">
+        <v>54.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.28</v>
+      </c>
+      <c r="K20">
+        <v>2.378</v>
+      </c>
+      <c r="L20">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M20">
+        <v>2.9825532</v>
+      </c>
+      <c r="N20">
+        <v>-2.0805532</v>
+      </c>
+      <c r="O20">
+        <v>-0.4785272360000001</v>
+      </c>
+      <c r="P20">
+        <v>-1.602025964</v>
+      </c>
+      <c r="Q20">
+        <v>0.7759740359999996</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06810116465146954</v>
+      </c>
+      <c r="T20">
+        <v>1.088606517724281</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.06955785398899171</v>
+      </c>
+      <c r="W20">
+        <v>0.1709222222222222</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.302425452126051</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08835295501420502</v>
+      </c>
+      <c r="C21">
+        <v>43.72139401663848</v>
+      </c>
+      <c r="D21">
+        <v>55.63939401663849</v>
+      </c>
+      <c r="E21">
+        <v>-18.862</v>
+      </c>
+      <c r="F21">
+        <v>17.138</v>
+      </c>
+      <c r="G21">
+        <v>5.22</v>
+      </c>
+      <c r="H21">
+        <v>54.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3.28</v>
+      </c>
+      <c r="K21">
+        <v>2.378</v>
+      </c>
+      <c r="L21">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M21">
+        <v>3.1482506</v>
+      </c>
+      <c r="N21">
+        <v>-2.2462506</v>
+      </c>
+      <c r="O21">
+        <v>-0.5166376380000001</v>
+      </c>
+      <c r="P21">
+        <v>-1.729612962</v>
+      </c>
+      <c r="Q21">
+        <v>0.6483870379999996</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06882710495580867</v>
+      </c>
+      <c r="T21">
+        <v>1.102046104362852</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.06589691430536057</v>
+      </c>
+      <c r="W21">
+        <v>0.1715947368421053</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.2865083230667851</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09009695501420503</v>
+      </c>
+      <c r="C22">
+        <v>41.61841926272656</v>
+      </c>
+      <c r="D22">
+        <v>54.43841926272657</v>
+      </c>
+      <c r="E22">
+        <v>-17.96</v>
+      </c>
+      <c r="F22">
+        <v>18.04</v>
+      </c>
+      <c r="G22">
+        <v>5.22</v>
+      </c>
+      <c r="H22">
+        <v>54.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3.28</v>
+      </c>
+      <c r="K22">
+        <v>2.378</v>
+      </c>
+      <c r="L22">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M22">
+        <v>3.313948</v>
+      </c>
+      <c r="N22">
+        <v>-2.411948</v>
+      </c>
+      <c r="O22">
+        <v>-0.5547480400000001</v>
+      </c>
+      <c r="P22">
+        <v>-1.85719996</v>
+      </c>
+      <c r="Q22">
+        <v>0.5208000399999997</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06957119376775628</v>
+      </c>
+      <c r="T22">
+        <v>1.115821680667388</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.06260206859009254</v>
+      </c>
+      <c r="W22">
+        <v>0.1722</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.2721829069134458</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09184095501420503</v>
+      </c>
+      <c r="C23">
+        <v>39.56619507186451</v>
+      </c>
+      <c r="D23">
+        <v>53.28819507186451</v>
+      </c>
+      <c r="E23">
+        <v>-17.058</v>
+      </c>
+      <c r="F23">
+        <v>18.942</v>
+      </c>
+      <c r="G23">
+        <v>5.22</v>
+      </c>
+      <c r="H23">
+        <v>54.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3.28</v>
+      </c>
+      <c r="K23">
+        <v>2.378</v>
+      </c>
+      <c r="L23">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M23">
+        <v>3.4796454</v>
+      </c>
+      <c r="N23">
+        <v>-2.5776454</v>
+      </c>
+      <c r="O23">
+        <v>-0.5928584419999999</v>
+      </c>
+      <c r="P23">
+        <v>-1.984786958</v>
+      </c>
+      <c r="Q23">
+        <v>0.3932130419999997</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07033412027114561</v>
+      </c>
+      <c r="T23">
+        <v>1.129946005739127</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.05962101770485005</v>
+      </c>
+      <c r="W23">
+        <v>0.172747619047619</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.2592218161080437</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09358495501420502</v>
+      </c>
+      <c r="C24">
+        <v>37.56157109597618</v>
+      </c>
+      <c r="D24">
+        <v>52.18557109597619</v>
+      </c>
+      <c r="E24">
+        <v>-16.156</v>
+      </c>
+      <c r="F24">
+        <v>19.844</v>
+      </c>
+      <c r="G24">
+        <v>5.22</v>
+      </c>
+      <c r="H24">
+        <v>54.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3.28</v>
+      </c>
+      <c r="K24">
+        <v>2.378</v>
+      </c>
+      <c r="L24">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M24">
+        <v>3.6453428</v>
+      </c>
+      <c r="N24">
+        <v>-2.7433428</v>
+      </c>
+      <c r="O24">
+        <v>-0.6309688440000001</v>
+      </c>
+      <c r="P24">
+        <v>-2.112373956</v>
+      </c>
+      <c r="Q24">
+        <v>0.2656260439999998</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07111660899257055</v>
+      </c>
+      <c r="T24">
+        <v>1.144432492992193</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.05691097144553868</v>
+      </c>
+      <c r="W24">
+        <v>0.1732454545454545</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.2474390062849507</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09532895501420503</v>
+      </c>
+      <c r="C25">
+        <v>35.60165244548979</v>
+      </c>
+      <c r="D25">
+        <v>51.12765244548979</v>
+      </c>
+      <c r="E25">
+        <v>-15.254</v>
+      </c>
+      <c r="F25">
+        <v>20.746</v>
+      </c>
+      <c r="G25">
+        <v>5.22</v>
+      </c>
+      <c r="H25">
+        <v>54.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3.28</v>
+      </c>
+      <c r="K25">
+        <v>2.378</v>
+      </c>
+      <c r="L25">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M25">
+        <v>3.8110402</v>
+      </c>
+      <c r="N25">
+        <v>-2.9090402</v>
+      </c>
+      <c r="O25">
+        <v>-0.6690792460000001</v>
+      </c>
+      <c r="P25">
+        <v>-2.239960954</v>
+      </c>
+      <c r="Q25">
+        <v>0.1380390459999998</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07191942209637017</v>
+      </c>
+      <c r="T25">
+        <v>1.159295252641442</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.05443658138268917</v>
+      </c>
+      <c r="W25">
+        <v>0.1737</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.2366807886203877</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09707295501420503</v>
+      </c>
+      <c r="C26">
+        <v>33.68377431024297</v>
+      </c>
+      <c r="D26">
+        <v>50.11177431024296</v>
+      </c>
+      <c r="E26">
+        <v>-14.352</v>
+      </c>
+      <c r="F26">
+        <v>21.648</v>
+      </c>
+      <c r="G26">
+        <v>5.22</v>
+      </c>
+      <c r="H26">
+        <v>54.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>3.28</v>
+      </c>
+      <c r="K26">
+        <v>2.378</v>
+      </c>
+      <c r="L26">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M26">
+        <v>3.9767376</v>
+      </c>
+      <c r="N26">
+        <v>-3.0747376</v>
+      </c>
+      <c r="O26">
+        <v>-0.7071896479999999</v>
+      </c>
+      <c r="P26">
+        <v>-2.367547952</v>
+      </c>
+      <c r="Q26">
+        <v>0.01045204799999988</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07274336186079609</v>
+      </c>
+      <c r="T26">
+        <v>1.174549137544619</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.0521683904917438</v>
+      </c>
+      <c r="W26">
+        <v>0.1741166666666667</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.2268190890945382</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09881695501420502</v>
+      </c>
+      <c r="C27">
+        <v>31.80547954705319</v>
+      </c>
+      <c r="D27">
+        <v>49.13547954705319</v>
+      </c>
+      <c r="E27">
+        <v>-13.45</v>
+      </c>
+      <c r="F27">
+        <v>22.55</v>
+      </c>
+      <c r="G27">
+        <v>5.22</v>
+      </c>
+      <c r="H27">
+        <v>54.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>3.28</v>
+      </c>
+      <c r="K27">
+        <v>2.378</v>
+      </c>
+      <c r="L27">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M27">
+        <v>4.142435</v>
+      </c>
+      <c r="N27">
+        <v>-3.240435</v>
+      </c>
+      <c r="O27">
+        <v>-0.74530005</v>
+      </c>
+      <c r="P27">
+        <v>-2.49513495</v>
+      </c>
+      <c r="Q27">
+        <v>-0.1171349500000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07358927335227337</v>
+      </c>
+      <c r="T27">
+        <v>1.190209792711881</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.05008165487207405</v>
+      </c>
+      <c r="W27">
+        <v>0.1745</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.2177463255307567</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.100560955014205</v>
+      </c>
+      <c r="C28">
+        <v>29.964498837102</v>
+      </c>
+      <c r="D28">
+        <v>48.196498837102</v>
+      </c>
+      <c r="E28">
+        <v>-12.548</v>
+      </c>
+      <c r="F28">
+        <v>23.452</v>
+      </c>
+      <c r="G28">
+        <v>5.22</v>
+      </c>
+      <c r="H28">
+        <v>54.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3.28</v>
+      </c>
+      <c r="K28">
+        <v>2.378</v>
+      </c>
+      <c r="L28">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M28">
+        <v>4.308132400000001</v>
+      </c>
+      <c r="N28">
+        <v>-3.406132400000001</v>
+      </c>
+      <c r="O28">
+        <v>-0.7834104520000001</v>
+      </c>
+      <c r="P28">
+        <v>-2.622721948000001</v>
+      </c>
+      <c r="Q28">
+        <v>-0.2447219480000009</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07445804731649328</v>
+      </c>
+      <c r="T28">
+        <v>1.206293708829609</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.04815543737699426</v>
+      </c>
+      <c r="W28">
+        <v>0.1748538461538462</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.2093714668564968</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.102304955014205</v>
+      </c>
+      <c r="C29">
+        <v>28.15873307581468</v>
+      </c>
+      <c r="D29">
+        <v>47.29273307581469</v>
+      </c>
+      <c r="E29">
+        <v>-11.646</v>
+      </c>
+      <c r="F29">
+        <v>24.354</v>
+      </c>
+      <c r="G29">
+        <v>5.22</v>
+      </c>
+      <c r="H29">
+        <v>54.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3.28</v>
+      </c>
+      <c r="K29">
+        <v>2.378</v>
+      </c>
+      <c r="L29">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M29">
+        <v>4.473829800000001</v>
+      </c>
+      <c r="N29">
+        <v>-3.571829800000001</v>
+      </c>
+      <c r="O29">
+        <v>-0.8215208540000002</v>
+      </c>
+      <c r="P29">
+        <v>-2.750308946000001</v>
+      </c>
+      <c r="Q29">
+        <v>-0.3723089460000009</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07535062330713017</v>
+      </c>
+      <c r="T29">
+        <v>1.222818280183439</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.04637190265932781</v>
+      </c>
+      <c r="W29">
+        <v>0.1751814814814815</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.201616968084034</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.104048955014205</v>
+      </c>
+      <c r="C30">
+        <v>26.38623770758761</v>
+      </c>
+      <c r="D30">
+        <v>46.42223770758762</v>
+      </c>
+      <c r="E30">
+        <v>-10.744</v>
+      </c>
+      <c r="F30">
+        <v>25.256</v>
+      </c>
+      <c r="G30">
+        <v>5.22</v>
+      </c>
+      <c r="H30">
+        <v>54.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3.28</v>
+      </c>
+      <c r="K30">
+        <v>2.378</v>
+      </c>
+      <c r="L30">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M30">
+        <v>4.639527200000001</v>
+      </c>
+      <c r="N30">
+        <v>-3.737527200000001</v>
+      </c>
+      <c r="O30">
+        <v>-0.8596312560000001</v>
+      </c>
+      <c r="P30">
+        <v>-2.877895944</v>
+      </c>
+      <c r="Q30">
+        <v>-0.4998959440000008</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07626799307528476</v>
+      </c>
+      <c r="T30">
+        <v>1.239801867408209</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.04471576327863754</v>
+      </c>
+      <c r="W30">
+        <v>0.1754857142857143</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1944163620810327</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.105792955014205</v>
+      </c>
+      <c r="C31">
+        <v>24.64520875930726</v>
+      </c>
+      <c r="D31">
+        <v>45.58320875930725</v>
+      </c>
+      <c r="E31">
+        <v>-9.842000000000002</v>
+      </c>
+      <c r="F31">
+        <v>26.158</v>
+      </c>
+      <c r="G31">
+        <v>5.22</v>
+      </c>
+      <c r="H31">
+        <v>54.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>3.28</v>
+      </c>
+      <c r="K31">
+        <v>2.378</v>
+      </c>
+      <c r="L31">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M31">
+        <v>4.8052246</v>
+      </c>
+      <c r="N31">
+        <v>-3.9032246</v>
+      </c>
+      <c r="O31">
+        <v>-0.8977416579999999</v>
+      </c>
+      <c r="P31">
+        <v>-3.005482942</v>
+      </c>
+      <c r="Q31">
+        <v>-0.6274829419999999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.0772112042453592</v>
+      </c>
+      <c r="T31">
+        <v>1.257263865540719</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.04317384040696038</v>
+      </c>
+      <c r="W31">
+        <v>0.1757689655172414</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1877123495954799</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.107536955014205</v>
+      </c>
+      <c r="C32">
+        <v>22.93397036155015</v>
+      </c>
+      <c r="D32">
+        <v>44.77397036155015</v>
+      </c>
+      <c r="E32">
+        <v>-8.940000000000001</v>
+      </c>
+      <c r="F32">
+        <v>27.06</v>
+      </c>
+      <c r="G32">
+        <v>5.22</v>
+      </c>
+      <c r="H32">
+        <v>54.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3.28</v>
+      </c>
+      <c r="K32">
+        <v>2.378</v>
+      </c>
+      <c r="L32">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M32">
+        <v>4.970922</v>
+      </c>
+      <c r="N32">
+        <v>-4.068922</v>
+      </c>
+      <c r="O32">
+        <v>-0.93585206</v>
+      </c>
+      <c r="P32">
+        <v>-3.133069939999999</v>
+      </c>
+      <c r="Q32">
+        <v>-0.7550699399999998</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07818136430600718</v>
+      </c>
+      <c r="T32">
+        <v>1.275224777905586</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.04173471239339504</v>
+      </c>
+      <c r="W32">
+        <v>0.1760333333333333</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1814552712756305</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.109280955014205</v>
+      </c>
+      <c r="C33">
+        <v>21.25096357581331</v>
+      </c>
+      <c r="D33">
+        <v>43.99296357581331</v>
+      </c>
+      <c r="E33">
+        <v>-8.038</v>
+      </c>
+      <c r="F33">
+        <v>27.962</v>
+      </c>
+      <c r="G33">
+        <v>5.22</v>
+      </c>
+      <c r="H33">
+        <v>54.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>3.28</v>
+      </c>
+      <c r="K33">
+        <v>2.378</v>
+      </c>
+      <c r="L33">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M33">
+        <v>5.1366194</v>
+      </c>
+      <c r="N33">
+        <v>-4.2346194</v>
+      </c>
+      <c r="O33">
+        <v>-0.973962462</v>
+      </c>
+      <c r="P33">
+        <v>-3.260656937999999</v>
+      </c>
+      <c r="Q33">
+        <v>-0.8826569379999998</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07917964494812323</v>
+      </c>
+      <c r="T33">
+        <v>1.293706296425957</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.04038843134844681</v>
+      </c>
+      <c r="W33">
+        <v>0.1762806451612903</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1756018754280296</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.111024955014205</v>
+      </c>
+      <c r="C34">
+        <v>19.59473637103838</v>
+      </c>
+      <c r="D34">
+        <v>43.23873637103839</v>
+      </c>
+      <c r="E34">
+        <v>-7.135999999999999</v>
+      </c>
+      <c r="F34">
+        <v>28.864</v>
+      </c>
+      <c r="G34">
+        <v>5.22</v>
+      </c>
+      <c r="H34">
+        <v>54.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>3.28</v>
+      </c>
+      <c r="K34">
+        <v>2.378</v>
+      </c>
+      <c r="L34">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M34">
+        <v>5.3023168</v>
+      </c>
+      <c r="N34">
+        <v>-4.4003168</v>
+      </c>
+      <c r="O34">
+        <v>-1.012072864</v>
+      </c>
+      <c r="P34">
+        <v>-3.388243935999999</v>
+      </c>
+      <c r="Q34">
+        <v>-1.010243936</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08020728678559563</v>
+      </c>
+      <c r="T34">
+        <v>1.312731389020457</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.03912629286880785</v>
+      </c>
+      <c r="W34">
+        <v>0.1765125</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1701143168209037</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.112768955014205</v>
+      </c>
+      <c r="C35">
+        <v>17.96393461382785</v>
+      </c>
+      <c r="D35">
+        <v>42.50993461382785</v>
+      </c>
+      <c r="E35">
+        <v>-6.233999999999998</v>
+      </c>
+      <c r="F35">
+        <v>29.766</v>
+      </c>
+      <c r="G35">
+        <v>5.22</v>
+      </c>
+      <c r="H35">
+        <v>54.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>3.28</v>
+      </c>
+      <c r="K35">
+        <v>2.378</v>
+      </c>
+      <c r="L35">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M35">
+        <v>5.468014200000001</v>
+      </c>
+      <c r="N35">
+        <v>-4.566014200000001</v>
+      </c>
+      <c r="O35">
+        <v>-1.050183266</v>
+      </c>
+      <c r="P35">
+        <v>-3.515830934</v>
+      </c>
+      <c r="Q35">
+        <v>-1.137830934000001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08126560449881348</v>
+      </c>
+      <c r="T35">
+        <v>1.332324394826732</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.03794064763035911</v>
+      </c>
+      <c r="W35">
+        <v>0.176730303030303</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1649593375233005</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.114512955014205</v>
+      </c>
+      <c r="C36">
+        <v>16.3572939547331</v>
+      </c>
+      <c r="D36">
+        <v>41.8052939547331</v>
+      </c>
+      <c r="E36">
+        <v>-5.331999999999997</v>
+      </c>
+      <c r="F36">
+        <v>30.668</v>
+      </c>
+      <c r="G36">
+        <v>5.22</v>
+      </c>
+      <c r="H36">
+        <v>54.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3.28</v>
+      </c>
+      <c r="K36">
+        <v>2.378</v>
+      </c>
+      <c r="L36">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M36">
+        <v>5.633711600000001</v>
+      </c>
+      <c r="N36">
+        <v>-4.731711600000001</v>
+      </c>
+      <c r="O36">
+        <v>-1.088293668</v>
+      </c>
+      <c r="P36">
+        <v>-3.643417932</v>
+      </c>
+      <c r="Q36">
+        <v>-1.265417932000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08235599244576521</v>
+      </c>
+      <c r="T36">
+        <v>1.352511128081683</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.03682474622946621</v>
+      </c>
+      <c r="W36">
+        <v>0.1769352941176471</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.160107592302027</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.116256955014205</v>
+      </c>
+      <c r="C37">
+        <v>14.77363250833748</v>
+      </c>
+      <c r="D37">
+        <v>41.12363250833749</v>
+      </c>
+      <c r="E37">
+        <v>-4.429999999999996</v>
+      </c>
+      <c r="F37">
+        <v>31.57</v>
+      </c>
+      <c r="G37">
+        <v>5.22</v>
+      </c>
+      <c r="H37">
+        <v>54.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3.28</v>
+      </c>
+      <c r="K37">
+        <v>2.378</v>
+      </c>
+      <c r="L37">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M37">
+        <v>5.799409000000001</v>
+      </c>
+      <c r="N37">
+        <v>-4.897409000000001</v>
+      </c>
+      <c r="O37">
+        <v>-1.12640407</v>
+      </c>
+      <c r="P37">
+        <v>-3.77100493</v>
+      </c>
+      <c r="Q37">
+        <v>-1.39300493</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08347993079108465</v>
+      </c>
+      <c r="T37">
+        <v>1.373318991590631</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.03577261062291003</v>
+      </c>
+      <c r="W37">
+        <v>0.1771285714285714</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1555330896648262</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.118000955014205</v>
+      </c>
+      <c r="C38">
+        <v>13.21184423798449</v>
+      </c>
+      <c r="D38">
+        <v>40.46384423798449</v>
+      </c>
+      <c r="E38">
+        <v>-3.527999999999999</v>
+      </c>
+      <c r="F38">
+        <v>32.472</v>
+      </c>
+      <c r="G38">
+        <v>5.22</v>
+      </c>
+      <c r="H38">
+        <v>54.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3.28</v>
+      </c>
+      <c r="K38">
+        <v>2.378</v>
+      </c>
+      <c r="L38">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M38">
+        <v>5.965106400000001</v>
+      </c>
+      <c r="N38">
+        <v>-5.063106400000001</v>
+      </c>
+      <c r="O38">
+        <v>-1.164514472</v>
+      </c>
+      <c r="P38">
+        <v>-3.898591928</v>
+      </c>
+      <c r="Q38">
+        <v>-1.520591928</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08463899220969535</v>
+      </c>
+      <c r="T38">
+        <v>1.394777100834235</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.03477892699449586</v>
+      </c>
+      <c r="W38">
+        <v>0.1773111111111111</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1512127260630255</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.119744955014205</v>
+      </c>
+      <c r="C39">
+        <v>11.67089296726353</v>
+      </c>
+      <c r="D39">
+        <v>39.82489296726353</v>
+      </c>
+      <c r="E39">
+        <v>-2.625999999999998</v>
+      </c>
+      <c r="F39">
+        <v>33.374</v>
+      </c>
+      <c r="G39">
+        <v>5.22</v>
+      </c>
+      <c r="H39">
+        <v>54.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>3.28</v>
+      </c>
+      <c r="K39">
+        <v>2.378</v>
+      </c>
+      <c r="L39">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M39">
+        <v>6.130803800000001</v>
+      </c>
+      <c r="N39">
+        <v>-5.228803800000001</v>
+      </c>
+      <c r="O39">
+        <v>-1.202624874</v>
+      </c>
+      <c r="P39">
+        <v>-4.026178926</v>
+      </c>
+      <c r="Q39">
+        <v>-1.648178926</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08583484922889688</v>
+      </c>
+      <c r="T39">
+        <v>1.416916419895096</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.03383895599464462</v>
+      </c>
+      <c r="W39">
+        <v>0.1774837837837838</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1471258956288897</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.121488955014205</v>
+      </c>
+      <c r="C40">
+        <v>10.14980695005166</v>
+      </c>
+      <c r="D40">
+        <v>39.20580695005166</v>
+      </c>
+      <c r="E40">
+        <v>-1.723999999999997</v>
+      </c>
+      <c r="F40">
+        <v>34.276</v>
+      </c>
+      <c r="G40">
+        <v>5.22</v>
+      </c>
+      <c r="H40">
+        <v>54.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3.28</v>
+      </c>
+      <c r="K40">
+        <v>2.378</v>
+      </c>
+      <c r="L40">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M40">
+        <v>6.296501200000001</v>
+      </c>
+      <c r="N40">
+        <v>-5.394501200000001</v>
+      </c>
+      <c r="O40">
+        <v>-1.240735276</v>
+      </c>
+      <c r="P40">
+        <v>-4.153765924</v>
+      </c>
+      <c r="Q40">
+        <v>-1.775765924</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08706928228097584</v>
+      </c>
+      <c r="T40">
+        <v>1.439769910538565</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.03294845715268029</v>
+      </c>
+      <c r="W40">
+        <v>0.1776473684210526</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.1432541615333925</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.123232955014205</v>
+      </c>
+      <c r="C41">
+        <v>8.647673939261523</v>
+      </c>
+      <c r="D41">
+        <v>38.60567393926153</v>
+      </c>
+      <c r="E41">
+        <v>-0.8219999999999956</v>
+      </c>
+      <c r="F41">
+        <v>35.178</v>
+      </c>
+      <c r="G41">
+        <v>5.22</v>
+      </c>
+      <c r="H41">
+        <v>54.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>3.28</v>
+      </c>
+      <c r="K41">
+        <v>2.378</v>
+      </c>
+      <c r="L41">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M41">
+        <v>6.462198600000001</v>
+      </c>
+      <c r="N41">
+        <v>-5.560198600000001</v>
+      </c>
+      <c r="O41">
+        <v>-1.278845678</v>
+      </c>
+      <c r="P41">
+        <v>-4.281352922</v>
+      </c>
+      <c r="Q41">
+        <v>-1.903352922</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08834418854787711</v>
+      </c>
+      <c r="T41">
+        <v>1.46337269595723</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.03210362491799618</v>
+      </c>
+      <c r="W41">
+        <v>0.1778025641025641</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1395809779043312</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.124976955014205</v>
+      </c>
+      <c r="C42">
+        <v>7.163636701664757</v>
+      </c>
+      <c r="D42">
+        <v>38.02363670166476</v>
+      </c>
+      <c r="E42">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="F42">
+        <v>36.08000000000001</v>
+      </c>
+      <c r="G42">
+        <v>5.22</v>
+      </c>
+      <c r="H42">
+        <v>54.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>3.28</v>
+      </c>
+      <c r="K42">
+        <v>2.378</v>
+      </c>
+      <c r="L42">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M42">
+        <v>6.627896000000001</v>
+      </c>
+      <c r="N42">
+        <v>-5.725896000000001</v>
+      </c>
+      <c r="O42">
+        <v>-1.31695608</v>
+      </c>
+      <c r="P42">
+        <v>-4.40893992</v>
+      </c>
+      <c r="Q42">
+        <v>-2.03093992</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0896615916903417</v>
+      </c>
+      <c r="T42">
+        <v>1.487762240889851</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.03130103429504627</v>
+      </c>
+      <c r="W42">
+        <v>0.17795</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.1360914534567229</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.126720955014205</v>
+      </c>
+      <c r="C43">
+        <v>5.696888932412833</v>
+      </c>
+      <c r="D43">
+        <v>37.45888893241284</v>
+      </c>
+      <c r="E43">
+        <v>0.9820000000000064</v>
+      </c>
+      <c r="F43">
+        <v>36.98200000000001</v>
+      </c>
+      <c r="G43">
+        <v>5.22</v>
+      </c>
+      <c r="H43">
+        <v>54.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3.28</v>
+      </c>
+      <c r="K43">
+        <v>2.378</v>
+      </c>
+      <c r="L43">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M43">
+        <v>6.793593400000002</v>
+      </c>
+      <c r="N43">
+        <v>-5.891593400000001</v>
+      </c>
+      <c r="O43">
+        <v>-1.355066482</v>
+      </c>
+      <c r="P43">
+        <v>-4.536526918000001</v>
+      </c>
+      <c r="Q43">
+        <v>-2.158526918000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09102365256644919</v>
+      </c>
+      <c r="T43">
+        <v>1.512978550057475</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.03053759443419149</v>
+      </c>
+      <c r="W43">
+        <v>0.178090243902439</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.132772149713876</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.128464955014205</v>
+      </c>
+      <c r="C44">
+        <v>4.246671528308248</v>
+      </c>
+      <c r="D44">
+        <v>36.91067152830825</v>
+      </c>
+      <c r="E44">
+        <v>1.884</v>
+      </c>
+      <c r="F44">
+        <v>37.884</v>
+      </c>
+      <c r="G44">
+        <v>5.22</v>
+      </c>
+      <c r="H44">
+        <v>54.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3.28</v>
+      </c>
+      <c r="K44">
+        <v>2.378</v>
+      </c>
+      <c r="L44">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M44">
+        <v>6.9592908</v>
+      </c>
+      <c r="N44">
+        <v>-6.0572908</v>
+      </c>
+      <c r="O44">
+        <v>-1.393176884</v>
+      </c>
+      <c r="P44">
+        <v>-4.664113916</v>
+      </c>
+      <c r="Q44">
+        <v>-2.286113916</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09243268105897418</v>
+      </c>
+      <c r="T44">
+        <v>1.539064387127432</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.02981050885242503</v>
+      </c>
+      <c r="W44">
+        <v>0.1782238095238095</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1296109080540219</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.130208955014205</v>
+      </c>
+      <c r="C45">
+        <v>2.812269183603448</v>
+      </c>
+      <c r="D45">
+        <v>36.37826918360345</v>
+      </c>
+      <c r="E45">
+        <v>2.786000000000001</v>
+      </c>
+      <c r="F45">
+        <v>38.786</v>
+      </c>
+      <c r="G45">
+        <v>5.22</v>
+      </c>
+      <c r="H45">
+        <v>54.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3.28</v>
+      </c>
+      <c r="K45">
+        <v>2.378</v>
+      </c>
+      <c r="L45">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M45">
+        <v>7.124988200000001</v>
+      </c>
+      <c r="N45">
+        <v>-6.222988200000001</v>
+      </c>
+      <c r="O45">
+        <v>-1.431287286</v>
+      </c>
+      <c r="P45">
+        <v>-4.791700914000001</v>
+      </c>
+      <c r="Q45">
+        <v>-2.413700914000001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.0938911491477281</v>
+      </c>
+      <c r="T45">
+        <v>1.566065516726158</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.02911724120469421</v>
+      </c>
+      <c r="W45">
+        <v>0.1783511627906977</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.1265967008899748</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.131952955014205</v>
+      </c>
+      <c r="C46">
+        <v>1.393007276225376</v>
+      </c>
+      <c r="D46">
+        <v>35.86100727622538</v>
+      </c>
+      <c r="E46">
+        <v>3.688000000000002</v>
+      </c>
+      <c r="F46">
+        <v>39.688</v>
+      </c>
+      <c r="G46">
+        <v>5.22</v>
+      </c>
+      <c r="H46">
+        <v>54.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>3.28</v>
+      </c>
+      <c r="K46">
+        <v>2.378</v>
+      </c>
+      <c r="L46">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M46">
+        <v>7.290685600000001</v>
+      </c>
+      <c r="N46">
+        <v>-6.388685600000001</v>
+      </c>
+      <c r="O46">
+        <v>-1.469397688</v>
+      </c>
+      <c r="P46">
+        <v>-4.919287912000001</v>
+      </c>
+      <c r="Q46">
+        <v>-2.541287912000001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09540170538250899</v>
+      </c>
+      <c r="T46">
+        <v>1.594030972381983</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.02845548572276934</v>
+      </c>
+      <c r="W46">
+        <v>0.1784727272727273</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1237195031424754</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.133696955014205</v>
+      </c>
+      <c r="C47">
+        <v>-0.01175098407605901</v>
+      </c>
+      <c r="D47">
+        <v>35.35824901592395</v>
+      </c>
+      <c r="E47">
+        <v>4.590000000000003</v>
+      </c>
+      <c r="F47">
+        <v>40.59</v>
+      </c>
+      <c r="G47">
+        <v>5.22</v>
+      </c>
+      <c r="H47">
+        <v>54.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3.28</v>
+      </c>
+      <c r="K47">
+        <v>2.378</v>
+      </c>
+      <c r="L47">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M47">
+        <v>7.456383000000001</v>
+      </c>
+      <c r="N47">
+        <v>-6.554383000000001</v>
+      </c>
+      <c r="O47">
+        <v>-1.50750809</v>
+      </c>
+      <c r="P47">
+        <v>-5.046874910000001</v>
+      </c>
+      <c r="Q47">
+        <v>-2.668874910000001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09696719093491822</v>
+      </c>
+      <c r="T47">
+        <v>1.623013353698019</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.02782314159559669</v>
+      </c>
+      <c r="W47">
+        <v>0.1785888888888889</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1209701808504203</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.135440955014205</v>
+      </c>
+      <c r="C48">
+        <v>-1.402607171004618</v>
+      </c>
+      <c r="D48">
+        <v>34.86939282899539</v>
+      </c>
+      <c r="E48">
+        <v>5.492000000000004</v>
+      </c>
+      <c r="F48">
+        <v>41.492</v>
+      </c>
+      <c r="G48">
+        <v>5.22</v>
+      </c>
+      <c r="H48">
+        <v>54.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3.28</v>
+      </c>
+      <c r="K48">
+        <v>2.378</v>
+      </c>
+      <c r="L48">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M48">
+        <v>7.622080400000001</v>
+      </c>
+      <c r="N48">
+        <v>-6.720080400000001</v>
+      </c>
+      <c r="O48">
+        <v>-1.545618492</v>
+      </c>
+      <c r="P48">
+        <v>-5.174461908</v>
+      </c>
+      <c r="Q48">
+        <v>-2.796461908000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09859065743371301</v>
+      </c>
+      <c r="T48">
+        <v>1.653069156544279</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.02721829069134458</v>
+      </c>
+      <c r="W48">
+        <v>0.1787</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1183403943101938</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.137184955014205</v>
+      </c>
+      <c r="C49">
+        <v>-2.780130043003233</v>
+      </c>
+      <c r="D49">
+        <v>34.39386995699677</v>
+      </c>
+      <c r="E49">
+        <v>6.394000000000005</v>
+      </c>
+      <c r="F49">
+        <v>42.39400000000001</v>
+      </c>
+      <c r="G49">
+        <v>5.22</v>
+      </c>
+      <c r="H49">
+        <v>54.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3.28</v>
+      </c>
+      <c r="K49">
+        <v>2.378</v>
+      </c>
+      <c r="L49">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M49">
+        <v>7.787777800000002</v>
+      </c>
+      <c r="N49">
+        <v>-6.885777800000001</v>
+      </c>
+      <c r="O49">
+        <v>-1.583728894</v>
+      </c>
+      <c r="P49">
+        <v>-5.302048906000001</v>
+      </c>
+      <c r="Q49">
+        <v>-2.924048906000002</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1002753868192548</v>
+      </c>
+      <c r="T49">
+        <v>1.68425914063002</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.02663917812344364</v>
+      </c>
+      <c r="W49">
+        <v>0.1788063829787234</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.1158225135801897</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.138928955014205</v>
+      </c>
+      <c r="C50">
+        <v>-4.144857750701163</v>
+      </c>
+      <c r="D50">
+        <v>33.93114224929884</v>
+      </c>
+      <c r="E50">
+        <v>7.295999999999999</v>
+      </c>
+      <c r="F50">
+        <v>43.296</v>
+      </c>
+      <c r="G50">
+        <v>5.22</v>
+      </c>
+      <c r="H50">
+        <v>54.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>3.28</v>
+      </c>
+      <c r="K50">
+        <v>2.378</v>
+      </c>
+      <c r="L50">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M50">
+        <v>7.9534752</v>
+      </c>
+      <c r="N50">
+        <v>-7.0514752</v>
+      </c>
+      <c r="O50">
+        <v>-1.621839296</v>
+      </c>
+      <c r="P50">
+        <v>-5.429635904</v>
+      </c>
+      <c r="Q50">
+        <v>-3.051635904</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1020249134888558</v>
+      </c>
+      <c r="T50">
+        <v>1.716648739488289</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.0260841952458719</v>
+      </c>
+      <c r="W50">
+        <v>0.1789083333333333</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1134095445472691</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.140672955014205</v>
+      </c>
+      <c r="C51">
+        <v>-5.497299868535677</v>
+      </c>
+      <c r="D51">
+        <v>33.48070013146432</v>
+      </c>
+      <c r="E51">
+        <v>8.198</v>
+      </c>
+      <c r="F51">
+        <v>44.198</v>
+      </c>
+      <c r="G51">
+        <v>5.22</v>
+      </c>
+      <c r="H51">
+        <v>54.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>3.28</v>
+      </c>
+      <c r="K51">
+        <v>2.378</v>
+      </c>
+      <c r="L51">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M51">
+        <v>8.119172600000001</v>
+      </c>
+      <c r="N51">
+        <v>-7.2171726</v>
+      </c>
+      <c r="O51">
+        <v>-1.659949698</v>
+      </c>
+      <c r="P51">
+        <v>-5.557222902</v>
+      </c>
+      <c r="Q51">
+        <v>-3.179222902000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1038430490474608</v>
+      </c>
+      <c r="T51">
+        <v>1.750308518693942</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.02555186473065002</v>
+      </c>
+      <c r="W51">
+        <v>0.1790061224489796</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1110950640463044</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.142416955014205</v>
+      </c>
+      <c r="C52">
+        <v>-6.837939266672784</v>
+      </c>
+      <c r="D52">
+        <v>33.04206073332722</v>
+      </c>
+      <c r="E52">
+        <v>9.100000000000001</v>
+      </c>
+      <c r="F52">
+        <v>45.1</v>
+      </c>
+      <c r="G52">
+        <v>5.22</v>
+      </c>
+      <c r="H52">
+        <v>54.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3.28</v>
+      </c>
+      <c r="K52">
+        <v>2.378</v>
+      </c>
+      <c r="L52">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M52">
+        <v>8.28487</v>
+      </c>
+      <c r="N52">
+        <v>-7.38287</v>
+      </c>
+      <c r="O52">
+        <v>-1.6980601</v>
+      </c>
+      <c r="P52">
+        <v>-5.684809899999999</v>
+      </c>
+      <c r="Q52">
+        <v>-3.3068099</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1057339100284101</v>
+      </c>
+      <c r="T52">
+        <v>1.785314689067821</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.02504082743603702</v>
+      </c>
+      <c r="W52">
+        <v>0.1791</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1088731627653784</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.144160955014205</v>
+      </c>
+      <c r="C53">
+        <v>-8.167233837683732</v>
+      </c>
+      <c r="D53">
+        <v>32.61476616231627</v>
+      </c>
+      <c r="E53">
+        <v>10.002</v>
+      </c>
+      <c r="F53">
+        <v>46.002</v>
+      </c>
+      <c r="G53">
+        <v>5.22</v>
+      </c>
+      <c r="H53">
+        <v>54.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>3.28</v>
+      </c>
+      <c r="K53">
+        <v>2.378</v>
+      </c>
+      <c r="L53">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M53">
+        <v>8.450567400000001</v>
+      </c>
+      <c r="N53">
+        <v>-7.5485674</v>
+      </c>
+      <c r="O53">
+        <v>-1.736170502</v>
+      </c>
+      <c r="P53">
+        <v>-5.812396898</v>
+      </c>
+      <c r="Q53">
+        <v>-3.434396898000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1077019490085817</v>
+      </c>
+      <c r="T53">
+        <v>1.821749682722266</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.02454983081964414</v>
+      </c>
+      <c r="W53">
+        <v>0.1791901960784314</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1067383948680179</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.145904955014205</v>
+      </c>
+      <c r="C54">
+        <v>-9.485618090957452</v>
+      </c>
+      <c r="D54">
+        <v>32.19838190904255</v>
+      </c>
+      <c r="E54">
+        <v>10.904</v>
+      </c>
+      <c r="F54">
+        <v>46.904</v>
+      </c>
+      <c r="G54">
+        <v>5.22</v>
+      </c>
+      <c r="H54">
+        <v>54.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3.28</v>
+      </c>
+      <c r="K54">
+        <v>2.378</v>
+      </c>
+      <c r="L54">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M54">
+        <v>8.616264800000002</v>
+      </c>
+      <c r="N54">
+        <v>-7.714264800000001</v>
+      </c>
+      <c r="O54">
+        <v>-1.774280904</v>
+      </c>
+      <c r="P54">
+        <v>-5.939983896000001</v>
+      </c>
+      <c r="Q54">
+        <v>-3.561983896000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1097519896129271</v>
+      </c>
+      <c r="T54">
+        <v>1.859702801112314</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.02407771868849713</v>
+      </c>
+      <c r="W54">
+        <v>0.1792769230769231</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1046857334282484</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1476489550142051</v>
+      </c>
+      <c r="C55">
+        <v>-10.79350462651968</v>
+      </c>
+      <c r="D55">
+        <v>31.79249537348032</v>
+      </c>
+      <c r="E55">
+        <v>11.806</v>
+      </c>
+      <c r="F55">
+        <v>47.806</v>
+      </c>
+      <c r="G55">
+        <v>5.22</v>
+      </c>
+      <c r="H55">
+        <v>54.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3.28</v>
+      </c>
+      <c r="K55">
+        <v>2.378</v>
+      </c>
+      <c r="L55">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M55">
+        <v>8.781962200000001</v>
+      </c>
+      <c r="N55">
+        <v>-7.8799622</v>
+      </c>
+      <c r="O55">
+        <v>-1.812391306</v>
+      </c>
+      <c r="P55">
+        <v>-6.067570894</v>
+      </c>
+      <c r="Q55">
+        <v>-3.689570894</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1118892659876703</v>
+      </c>
+      <c r="T55">
+        <v>1.899270945816831</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.02362342210946889</v>
+      </c>
+      <c r="W55">
+        <v>0.1793603773584906</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1027105309107342</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.149392955014205</v>
+      </c>
+      <c r="C56">
+        <v>-12.09128549876787</v>
+      </c>
+      <c r="D56">
+        <v>31.39671450123213</v>
+      </c>
+      <c r="E56">
+        <v>12.70800000000001</v>
+      </c>
+      <c r="F56">
+        <v>48.70800000000001</v>
+      </c>
+      <c r="G56">
+        <v>5.22</v>
+      </c>
+      <c r="H56">
+        <v>54.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3.28</v>
+      </c>
+      <c r="K56">
+        <v>2.378</v>
+      </c>
+      <c r="L56">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M56">
+        <v>8.947659600000001</v>
+      </c>
+      <c r="N56">
+        <v>-8.0456596</v>
+      </c>
+      <c r="O56">
+        <v>-1.850501708</v>
+      </c>
+      <c r="P56">
+        <v>-6.195157892</v>
+      </c>
+      <c r="Q56">
+        <v>-3.817157892</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1141194674221848</v>
+      </c>
+      <c r="T56">
+        <v>1.940559444638936</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.02318595132966391</v>
+      </c>
+      <c r="W56">
+        <v>0.1794407407407407</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.100808484042017</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.151136955014205</v>
+      </c>
+      <c r="C57">
+        <v>-13.37933347959676</v>
+      </c>
+      <c r="D57">
+        <v>31.01066652040325</v>
+      </c>
+      <c r="E57">
+        <v>13.61000000000001</v>
+      </c>
+      <c r="F57">
+        <v>49.61000000000001</v>
+      </c>
+      <c r="G57">
+        <v>5.22</v>
+      </c>
+      <c r="H57">
+        <v>54.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>3.28</v>
+      </c>
+      <c r="K57">
+        <v>2.378</v>
+      </c>
+      <c r="L57">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M57">
+        <v>9.113357000000001</v>
+      </c>
+      <c r="N57">
+        <v>-8.211357</v>
+      </c>
+      <c r="O57">
+        <v>-1.88861211</v>
+      </c>
+      <c r="P57">
+        <v>-6.322744889999999</v>
+      </c>
+      <c r="Q57">
+        <v>-3.94474489</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1164487889204556</v>
+      </c>
+      <c r="T57">
+        <v>1.983682987853135</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.02276438857821547</v>
+      </c>
+      <c r="W57">
+        <v>0.1795181818181818</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.09897560251398041</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.152880955014205</v>
+      </c>
+      <c r="C58">
+        <v>-14.65800322946875</v>
+      </c>
+      <c r="D58">
+        <v>30.63399677053126</v>
+      </c>
+      <c r="E58">
+        <v>14.51200000000001</v>
+      </c>
+      <c r="F58">
+        <v>50.51200000000001</v>
+      </c>
+      <c r="G58">
+        <v>5.22</v>
+      </c>
+      <c r="H58">
+        <v>54.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>3.28</v>
+      </c>
+      <c r="K58">
+        <v>2.378</v>
+      </c>
+      <c r="L58">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M58">
+        <v>9.279054400000001</v>
+      </c>
+      <c r="N58">
+        <v>-8.377054400000002</v>
+      </c>
+      <c r="O58">
+        <v>-1.926722512000001</v>
+      </c>
+      <c r="P58">
+        <v>-6.450331888000002</v>
+      </c>
+      <c r="Q58">
+        <v>-4.072331888000003</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1188839886686478</v>
+      </c>
+      <c r="T58">
+        <v>2.028766692122524</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.02235788163931877</v>
+      </c>
+      <c r="W58">
+        <v>0.1795928571428571</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.09720818104051632</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.154624955014205</v>
+      </c>
+      <c r="C59">
+        <v>-15.92763238416268</v>
+      </c>
+      <c r="D59">
+        <v>30.26636761583732</v>
+      </c>
+      <c r="E59">
+        <v>15.41400000000001</v>
+      </c>
+      <c r="F59">
+        <v>51.41400000000001</v>
+      </c>
+      <c r="G59">
+        <v>5.22</v>
+      </c>
+      <c r="H59">
+        <v>54.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>3.28</v>
+      </c>
+      <c r="K59">
+        <v>2.378</v>
+      </c>
+      <c r="L59">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M59">
+        <v>9.444751800000002</v>
+      </c>
+      <c r="N59">
+        <v>-8.542751800000001</v>
+      </c>
+      <c r="O59">
+        <v>-1.964832914</v>
+      </c>
+      <c r="P59">
+        <v>-6.577918886000001</v>
+      </c>
+      <c r="Q59">
+        <v>-4.199918886000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1214324535214071</v>
+      </c>
+      <c r="T59">
+        <v>2.075947312869559</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.02196563810178686</v>
+      </c>
+      <c r="W59">
+        <v>0.1796649122807017</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.09550277435559507</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.156368955014205</v>
+      </c>
+      <c r="C60">
+        <v>-17.1885425641998</v>
+      </c>
+      <c r="D60">
+        <v>29.9074574358002</v>
+      </c>
+      <c r="E60">
+        <v>16.316</v>
+      </c>
+      <c r="F60">
+        <v>52.316</v>
+      </c>
+      <c r="G60">
+        <v>5.22</v>
+      </c>
+      <c r="H60">
+        <v>54.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3.28</v>
+      </c>
+      <c r="K60">
+        <v>2.378</v>
+      </c>
+      <c r="L60">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M60">
+        <v>9.6104492</v>
+      </c>
+      <c r="N60">
+        <v>-8.7084492</v>
+      </c>
+      <c r="O60">
+        <v>-2.002943316</v>
+      </c>
+      <c r="P60">
+        <v>-6.705505884000001</v>
+      </c>
+      <c r="Q60">
+        <v>-4.327505884000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1241022738433453</v>
+      </c>
+      <c r="T60">
+        <v>2.125374629842644</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.02158692020348019</v>
+      </c>
+      <c r="W60">
+        <v>0.1797344827586207</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.09385617479773989</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.158112955014205</v>
+      </c>
+      <c r="C61">
+        <v>-18.44104031329064</v>
+      </c>
+      <c r="D61">
+        <v>29.55695968670935</v>
+      </c>
+      <c r="E61">
+        <v>17.218</v>
+      </c>
+      <c r="F61">
+        <v>53.218</v>
+      </c>
+      <c r="G61">
+        <v>5.22</v>
+      </c>
+      <c r="H61">
+        <v>54.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>3.28</v>
+      </c>
+      <c r="K61">
+        <v>2.378</v>
+      </c>
+      <c r="L61">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M61">
+        <v>9.776146599999999</v>
+      </c>
+      <c r="N61">
+        <v>-8.8741466</v>
+      </c>
+      <c r="O61">
+        <v>-2.041053718</v>
+      </c>
+      <c r="P61">
+        <v>-6.833092881999999</v>
+      </c>
+      <c r="Q61">
+        <v>-4.455092881999999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.126902329302939</v>
+      </c>
+      <c r="T61">
+        <v>2.177213035448561</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.02122104020003138</v>
+      </c>
+      <c r="W61">
+        <v>0.1798016949152542</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.09226539217404939</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.159856955014205</v>
+      </c>
+      <c r="C62">
+        <v>-19.68541797155795</v>
+      </c>
+      <c r="D62">
+        <v>29.21458202844205</v>
+      </c>
+      <c r="E62">
+        <v>18.12</v>
+      </c>
+      <c r="F62">
+        <v>54.12</v>
+      </c>
+      <c r="G62">
+        <v>5.22</v>
+      </c>
+      <c r="H62">
+        <v>54.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>3.28</v>
+      </c>
+      <c r="K62">
+        <v>2.378</v>
+      </c>
+      <c r="L62">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M62">
+        <v>9.941844</v>
+      </c>
+      <c r="N62">
+        <v>-9.039843999999999</v>
+      </c>
+      <c r="O62">
+        <v>-2.07916412</v>
+      </c>
+      <c r="P62">
+        <v>-6.960679879999999</v>
+      </c>
+      <c r="Q62">
+        <v>-4.582679879999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1298423875355125</v>
+      </c>
+      <c r="T62">
+        <v>2.231643361334775</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.02086735619669752</v>
+      </c>
+      <c r="W62">
+        <v>0.1798666666666667</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.09072763563781538</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.161600955014205</v>
+      </c>
+      <c r="C63">
+        <v>-20.92195448876399</v>
+      </c>
+      <c r="D63">
+        <v>28.88004551123601</v>
+      </c>
+      <c r="E63">
+        <v>19.022</v>
+      </c>
+      <c r="F63">
+        <v>55.022</v>
+      </c>
+      <c r="G63">
+        <v>5.22</v>
+      </c>
+      <c r="H63">
+        <v>54.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3.28</v>
+      </c>
+      <c r="K63">
+        <v>2.378</v>
+      </c>
+      <c r="L63">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M63">
+        <v>10.1075414</v>
+      </c>
+      <c r="N63">
+        <v>-9.205541400000001</v>
+      </c>
+      <c r="O63">
+        <v>-2.117274522</v>
+      </c>
+      <c r="P63">
+        <v>-7.088266878000001</v>
+      </c>
+      <c r="Q63">
+        <v>-4.710266878000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1329332179851411</v>
+      </c>
+      <c r="T63">
+        <v>2.288864985984386</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02052526839019428</v>
+      </c>
+      <c r="W63">
+        <v>0.1799295081967213</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.08924029734867067</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.163344955014205</v>
+      </c>
+      <c r="C64">
+        <v>-22.15091618229657</v>
+      </c>
+      <c r="D64">
+        <v>28.55308381770343</v>
+      </c>
+      <c r="E64">
+        <v>19.924</v>
+      </c>
+      <c r="F64">
+        <v>55.924</v>
+      </c>
+      <c r="G64">
+        <v>5.22</v>
+      </c>
+      <c r="H64">
+        <v>54.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3.28</v>
+      </c>
+      <c r="K64">
+        <v>2.378</v>
+      </c>
+      <c r="L64">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M64">
+        <v>10.2732388</v>
+      </c>
+      <c r="N64">
+        <v>-9.3712388</v>
+      </c>
+      <c r="O64">
+        <v>-2.155384924</v>
+      </c>
+      <c r="P64">
+        <v>-7.215853876000001</v>
+      </c>
+      <c r="Q64">
+        <v>-4.837853876</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1361867237215922</v>
+      </c>
+      <c r="T64">
+        <v>2.349098275089238</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.0201942156742234</v>
+      </c>
+      <c r="W64">
+        <v>0.1799903225806452</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.08780093771401476</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.165088955014205</v>
+      </c>
+      <c r="C65">
+        <v>-23.37255744424312</v>
+      </c>
+      <c r="D65">
+        <v>28.23344255575688</v>
+      </c>
+      <c r="E65">
+        <v>20.826</v>
+      </c>
+      <c r="F65">
+        <v>56.826</v>
+      </c>
+      <c r="G65">
+        <v>5.22</v>
+      </c>
+      <c r="H65">
+        <v>54.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>3.28</v>
+      </c>
+      <c r="K65">
+        <v>2.378</v>
+      </c>
+      <c r="L65">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M65">
+        <v>10.4389362</v>
+      </c>
+      <c r="N65">
+        <v>-9.5369362</v>
+      </c>
+      <c r="O65">
+        <v>-2.193495326</v>
+      </c>
+      <c r="P65">
+        <v>-7.343440874</v>
+      </c>
+      <c r="Q65">
+        <v>-4.965440874</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1396160946329865</v>
+      </c>
+      <c r="T65">
+        <v>2.412587417659217</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.01987367256828335</v>
+      </c>
+      <c r="W65">
+        <v>0.1800492063492063</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.08640727203601462</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.166832955014205</v>
+      </c>
+      <c r="C66">
+        <v>-24.58712140149765</v>
+      </c>
+      <c r="D66">
+        <v>27.92087859850235</v>
+      </c>
+      <c r="E66">
+        <v>21.728</v>
+      </c>
+      <c r="F66">
+        <v>57.728</v>
+      </c>
+      <c r="G66">
+        <v>5.22</v>
+      </c>
+      <c r="H66">
+        <v>54.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3.28</v>
+      </c>
+      <c r="K66">
+        <v>2.378</v>
+      </c>
+      <c r="L66">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M66">
+        <v>10.6046336</v>
+      </c>
+      <c r="N66">
+        <v>-9.702633599999999</v>
+      </c>
+      <c r="O66">
+        <v>-2.231605728</v>
+      </c>
+      <c r="P66">
+        <v>-7.471027871999999</v>
+      </c>
+      <c r="Q66">
+        <v>-5.093027871999999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1432359861505695</v>
+      </c>
+      <c r="T66">
+        <v>2.479603734816418</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.01956314643440392</v>
+      </c>
+      <c r="W66">
+        <v>0.18010625</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.08505715841045192</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.168576955014205</v>
+      </c>
+      <c r="C67">
+        <v>-25.79484053250091</v>
+      </c>
+      <c r="D67">
+        <v>27.61515946749909</v>
+      </c>
+      <c r="E67">
+        <v>22.63</v>
+      </c>
+      <c r="F67">
+        <v>58.63</v>
+      </c>
+      <c r="G67">
+        <v>5.22</v>
+      </c>
+      <c r="H67">
+        <v>54.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>3.28</v>
+      </c>
+      <c r="K67">
+        <v>2.378</v>
+      </c>
+      <c r="L67">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M67">
+        <v>10.770331</v>
+      </c>
+      <c r="N67">
+        <v>-9.868331000000001</v>
+      </c>
+      <c r="O67">
+        <v>-2.26971613</v>
+      </c>
+      <c r="P67">
+        <v>-7.59861487</v>
+      </c>
+      <c r="Q67">
+        <v>-5.22061487</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1470627286120144</v>
+      </c>
+      <c r="T67">
+        <v>2.550449555811173</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.01926217495079771</v>
+      </c>
+      <c r="W67">
+        <v>0.1801615384615385</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.08374858674259866</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.170320955014205</v>
+      </c>
+      <c r="C68">
+        <v>-26.99593724390142</v>
+      </c>
+      <c r="D68">
+        <v>27.31606275609858</v>
+      </c>
+      <c r="E68">
+        <v>23.532</v>
+      </c>
+      <c r="F68">
+        <v>59.532</v>
+      </c>
+      <c r="G68">
+        <v>5.22</v>
+      </c>
+      <c r="H68">
+        <v>54.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>3.28</v>
+      </c>
+      <c r="K68">
+        <v>2.378</v>
+      </c>
+      <c r="L68">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M68">
+        <v>10.9360284</v>
+      </c>
+      <c r="N68">
+        <v>-10.0340284</v>
+      </c>
+      <c r="O68">
+        <v>-2.307826532</v>
+      </c>
+      <c r="P68">
+        <v>-7.726201868</v>
+      </c>
+      <c r="Q68">
+        <v>-5.348201868</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1511145735711913</v>
+      </c>
+      <c r="T68">
+        <v>2.625462778040913</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.01897032381517956</v>
+      </c>
+      <c r="W68">
+        <v>0.1802151515151515</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.08247966876165036</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.172064955014205</v>
+      </c>
+      <c r="C69">
+        <v>-28.19062441014356</v>
+      </c>
+      <c r="D69">
+        <v>27.02337558985644</v>
+      </c>
+      <c r="E69">
+        <v>24.434</v>
+      </c>
+      <c r="F69">
+        <v>60.434</v>
+      </c>
+      <c r="G69">
+        <v>5.22</v>
+      </c>
+      <c r="H69">
+        <v>54.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>3.28</v>
+      </c>
+      <c r="K69">
+        <v>2.378</v>
+      </c>
+      <c r="L69">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M69">
+        <v>11.1017258</v>
+      </c>
+      <c r="N69">
+        <v>-10.1997258</v>
+      </c>
+      <c r="O69">
+        <v>-2.345936934</v>
+      </c>
+      <c r="P69">
+        <v>-7.853788865999999</v>
+      </c>
+      <c r="Q69">
+        <v>-5.475788866</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1554119848915304</v>
+      </c>
+      <c r="T69">
+        <v>2.705022256163365</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.01868718465375897</v>
+      </c>
+      <c r="W69">
+        <v>0.1802671641791045</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.08124862892938689</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.173808955014205</v>
+      </c>
+      <c r="C70">
+        <v>-29.37910587873377</v>
+      </c>
+      <c r="D70">
+        <v>26.73689412126624</v>
+      </c>
+      <c r="E70">
+        <v>25.33600000000001</v>
+      </c>
+      <c r="F70">
+        <v>61.33600000000001</v>
+      </c>
+      <c r="G70">
+        <v>5.22</v>
+      </c>
+      <c r="H70">
+        <v>54.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>3.28</v>
+      </c>
+      <c r="K70">
+        <v>2.378</v>
+      </c>
+      <c r="L70">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M70">
+        <v>11.2674232</v>
+      </c>
+      <c r="N70">
+        <v>-10.3654232</v>
+      </c>
+      <c r="O70">
+        <v>-2.384047336000001</v>
+      </c>
+      <c r="P70">
+        <v>-7.981375864000002</v>
+      </c>
+      <c r="Q70">
+        <v>-5.603375864000002</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1599779844193907</v>
+      </c>
+      <c r="T70">
+        <v>2.789554201668471</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.0184123731147331</v>
+      </c>
+      <c r="W70">
+        <v>0.1803176470588235</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.08005379615101338</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.175552955014205</v>
+      </c>
+      <c r="C71">
+        <v>-30.56157694370525</v>
+      </c>
+      <c r="D71">
+        <v>26.45642305629476</v>
+      </c>
+      <c r="E71">
+        <v>26.23800000000001</v>
+      </c>
+      <c r="F71">
+        <v>62.23800000000001</v>
+      </c>
+      <c r="G71">
+        <v>5.22</v>
+      </c>
+      <c r="H71">
+        <v>54.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>3.28</v>
+      </c>
+      <c r="K71">
+        <v>2.378</v>
+      </c>
+      <c r="L71">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M71">
+        <v>11.4331206</v>
+      </c>
+      <c r="N71">
+        <v>-10.5311206</v>
+      </c>
+      <c r="O71">
+        <v>-2.422157738000001</v>
+      </c>
+      <c r="P71">
+        <v>-8.108962862</v>
+      </c>
+      <c r="Q71">
+        <v>-5.730962862</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1648385645619517</v>
+      </c>
+      <c r="T71">
+        <v>2.879539821077131</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.01814552712756306</v>
+      </c>
+      <c r="W71">
+        <v>0.1803666666666667</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.07889359620679581</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.177296955014205</v>
+      </c>
+      <c r="C72">
+        <v>-31.73822478959196</v>
+      </c>
+      <c r="D72">
+        <v>26.18177521040805</v>
+      </c>
+      <c r="E72">
+        <v>27.14000000000001</v>
+      </c>
+      <c r="F72">
+        <v>63.14000000000001</v>
+      </c>
+      <c r="G72">
+        <v>5.22</v>
+      </c>
+      <c r="H72">
+        <v>54.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>3.28</v>
+      </c>
+      <c r="K72">
+        <v>2.378</v>
+      </c>
+      <c r="L72">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M72">
+        <v>11.598818</v>
+      </c>
+      <c r="N72">
+        <v>-10.696818</v>
+      </c>
+      <c r="O72">
+        <v>-2.46026814</v>
+      </c>
+      <c r="P72">
+        <v>-8.23654986</v>
+      </c>
+      <c r="Q72">
+        <v>-5.85854986</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1700231833806835</v>
+      </c>
+      <c r="T72">
+        <v>2.975524481779702</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.01788630531145502</v>
+      </c>
+      <c r="W72">
+        <v>0.1804142857142857</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.07776654483241319</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.179040955014205</v>
+      </c>
+      <c r="C73">
+        <v>-32.90922890803307</v>
+      </c>
+      <c r="D73">
+        <v>25.91277109196693</v>
+      </c>
+      <c r="E73">
+        <v>28.042</v>
+      </c>
+      <c r="F73">
+        <v>64.042</v>
+      </c>
+      <c r="G73">
+        <v>5.22</v>
+      </c>
+      <c r="H73">
+        <v>54.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3.28</v>
+      </c>
+      <c r="K73">
+        <v>2.378</v>
+      </c>
+      <c r="L73">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M73">
+        <v>11.7645154</v>
+      </c>
+      <c r="N73">
+        <v>-10.8625154</v>
+      </c>
+      <c r="O73">
+        <v>-2.498378542</v>
+      </c>
+      <c r="P73">
+        <v>-8.364136857999998</v>
+      </c>
+      <c r="Q73">
+        <v>-5.986136857999998</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1755653621179483</v>
+      </c>
+      <c r="T73">
+        <v>3.078128774254863</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.01763438551833593</v>
+      </c>
+      <c r="W73">
+        <v>0.1804605633802817</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.07667124138406933</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.180784955014205</v>
+      </c>
+      <c r="C74">
+        <v>-34.07476148895626</v>
+      </c>
+      <c r="D74">
+        <v>25.64923851104374</v>
+      </c>
+      <c r="E74">
+        <v>28.944</v>
+      </c>
+      <c r="F74">
+        <v>64.944</v>
+      </c>
+      <c r="G74">
+        <v>5.22</v>
+      </c>
+      <c r="H74">
+        <v>54.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3.28</v>
+      </c>
+      <c r="K74">
+        <v>2.378</v>
+      </c>
+      <c r="L74">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M74">
+        <v>11.9302128</v>
+      </c>
+      <c r="N74">
+        <v>-11.0282128</v>
+      </c>
+      <c r="O74">
+        <v>-2.536488944000001</v>
+      </c>
+      <c r="P74">
+        <v>-8.491723856000002</v>
+      </c>
+      <c r="Q74">
+        <v>-6.113723856000002</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.181503410765018</v>
+      </c>
+      <c r="T74">
+        <v>3.188061944763966</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.01738946349724793</v>
+      </c>
+      <c r="W74">
+        <v>0.1805055555555556</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.07560636303151269</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.182528955014205</v>
+      </c>
+      <c r="C75">
+        <v>-35.23498778813121</v>
+      </c>
+      <c r="D75">
+        <v>25.3910122118688</v>
+      </c>
+      <c r="E75">
+        <v>29.846</v>
+      </c>
+      <c r="F75">
+        <v>65.846</v>
+      </c>
+      <c r="G75">
+        <v>5.22</v>
+      </c>
+      <c r="H75">
+        <v>54.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>3.28</v>
+      </c>
+      <c r="K75">
+        <v>2.378</v>
+      </c>
+      <c r="L75">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M75">
+        <v>12.0959102</v>
+      </c>
+      <c r="N75">
+        <v>-11.1939102</v>
+      </c>
+      <c r="O75">
+        <v>-2.574599346</v>
+      </c>
+      <c r="P75">
+        <v>-8.619310854000002</v>
+      </c>
+      <c r="Q75">
+        <v>-6.241310854000002</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.187881314867426</v>
+      </c>
+      <c r="T75">
+        <v>3.306138313088557</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.01715125166851851</v>
+      </c>
+      <c r="W75">
+        <v>0.1805493150684931</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.07457065942834129</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.184272955014205</v>
+      </c>
+      <c r="C76">
+        <v>-36.39006647274223</v>
+      </c>
+      <c r="D76">
+        <v>25.13793352725777</v>
+      </c>
+      <c r="E76">
+        <v>30.748</v>
+      </c>
+      <c r="F76">
+        <v>66.748</v>
+      </c>
+      <c r="G76">
+        <v>5.22</v>
+      </c>
+      <c r="H76">
+        <v>54.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>3.28</v>
+      </c>
+      <c r="K76">
+        <v>2.378</v>
+      </c>
+      <c r="L76">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M76">
+        <v>12.2616076</v>
+      </c>
+      <c r="N76">
+        <v>-11.3596076</v>
+      </c>
+      <c r="O76">
+        <v>-2.612709748</v>
+      </c>
+      <c r="P76">
+        <v>-8.746897852</v>
+      </c>
+      <c r="Q76">
+        <v>-6.368897852</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1947498269777116</v>
+      </c>
+      <c r="T76">
+        <v>3.433297478976578</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.01691947799732231</v>
+      </c>
+      <c r="W76">
+        <v>0.1805918918918919</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.07356294781444495</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.186016955014205</v>
+      </c>
+      <c r="C77">
+        <v>-37.54014994649841</v>
+      </c>
+      <c r="D77">
+        <v>24.8898500535016</v>
+      </c>
+      <c r="E77">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="F77">
+        <v>67.65000000000001</v>
+      </c>
+      <c r="G77">
+        <v>5.22</v>
+      </c>
+      <c r="H77">
+        <v>54.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3.28</v>
+      </c>
+      <c r="K77">
+        <v>2.378</v>
+      </c>
+      <c r="L77">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M77">
+        <v>12.427305</v>
+      </c>
+      <c r="N77">
+        <v>-11.525305</v>
+      </c>
+      <c r="O77">
+        <v>-2.65082015</v>
+      </c>
+      <c r="P77">
+        <v>-8.87448485</v>
+      </c>
+      <c r="Q77">
+        <v>-6.49648485</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2021678200568201</v>
+      </c>
+      <c r="T77">
+        <v>3.570629378135642</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.01669388495735801</v>
+      </c>
+      <c r="W77">
+        <v>0.1806333333333333</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.07258210851025226</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.187760955014205</v>
+      </c>
+      <c r="C78">
+        <v>-38.68538465568089</v>
+      </c>
+      <c r="D78">
+        <v>24.64661534431912</v>
+      </c>
+      <c r="E78">
+        <v>32.55200000000001</v>
+      </c>
+      <c r="F78">
+        <v>68.55200000000001</v>
+      </c>
+      <c r="G78">
+        <v>5.22</v>
+      </c>
+      <c r="H78">
+        <v>54.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3.28</v>
+      </c>
+      <c r="K78">
+        <v>2.378</v>
+      </c>
+      <c r="L78">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M78">
+        <v>12.5930024</v>
+      </c>
+      <c r="N78">
+        <v>-11.6910024</v>
+      </c>
+      <c r="O78">
+        <v>-2.688930552</v>
+      </c>
+      <c r="P78">
+        <v>-9.002071848000002</v>
+      </c>
+      <c r="Q78">
+        <v>-6.624071848000002</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2102039792258543</v>
+      </c>
+      <c r="T78">
+        <v>3.719405602224627</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01647422857634014</v>
+      </c>
+      <c r="W78">
+        <v>0.1806736842105263</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.07162708076669622</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.189504955014205</v>
+      </c>
+      <c r="C79">
+        <v>-39.82591137741895</v>
+      </c>
+      <c r="D79">
+        <v>24.40808862258107</v>
+      </c>
+      <c r="E79">
+        <v>33.45400000000001</v>
+      </c>
+      <c r="F79">
+        <v>69.45400000000001</v>
+      </c>
+      <c r="G79">
+        <v>5.22</v>
+      </c>
+      <c r="H79">
+        <v>54.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>3.28</v>
+      </c>
+      <c r="K79">
+        <v>2.378</v>
+      </c>
+      <c r="L79">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M79">
+        <v>12.7586998</v>
+      </c>
+      <c r="N79">
+        <v>-11.8566998</v>
+      </c>
+      <c r="O79">
+        <v>-2.727040954</v>
+      </c>
+      <c r="P79">
+        <v>-9.129658846000002</v>
+      </c>
+      <c r="Q79">
+        <v>-6.751658846000002</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2189389348443697</v>
+      </c>
+      <c r="T79">
+        <v>3.881118889277872</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01626027755586819</v>
+      </c>
+      <c r="W79">
+        <v>0.180712987012987</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.07069685893855748</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.191248955014205</v>
+      </c>
+      <c r="C80">
+        <v>-40.9618654913871</v>
+      </c>
+      <c r="D80">
+        <v>24.17413450861291</v>
+      </c>
+      <c r="E80">
+        <v>34.35600000000001</v>
+      </c>
+      <c r="F80">
+        <v>70.35600000000001</v>
+      </c>
+      <c r="G80">
+        <v>5.22</v>
+      </c>
+      <c r="H80">
+        <v>54.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>3.28</v>
+      </c>
+      <c r="K80">
+        <v>2.378</v>
+      </c>
+      <c r="L80">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M80">
+        <v>12.9243972</v>
+      </c>
+      <c r="N80">
+        <v>-12.0223972</v>
+      </c>
+      <c r="O80">
+        <v>-2.765151356</v>
+      </c>
+      <c r="P80">
+        <v>-9.257245844</v>
+      </c>
+      <c r="Q80">
+        <v>-6.879245844</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2284679773372956</v>
+      </c>
+      <c r="T80">
+        <v>4.057533384245048</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01605181245899809</v>
+      </c>
+      <c r="W80">
+        <v>0.180751282051282</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.06979048895216566</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.192992955014205</v>
+      </c>
+      <c r="C81">
+        <v>-42.09337723602511</v>
+      </c>
+      <c r="D81">
+        <v>23.9446227639749</v>
+      </c>
+      <c r="E81">
+        <v>35.25800000000001</v>
+      </c>
+      <c r="F81">
+        <v>71.25800000000001</v>
+      </c>
+      <c r="G81">
+        <v>5.22</v>
+      </c>
+      <c r="H81">
+        <v>54.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>3.28</v>
+      </c>
+      <c r="K81">
+        <v>2.378</v>
+      </c>
+      <c r="L81">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M81">
+        <v>13.0900946</v>
+      </c>
+      <c r="N81">
+        <v>-12.1880946</v>
+      </c>
+      <c r="O81">
+        <v>-2.803261758000001</v>
+      </c>
+      <c r="P81">
+        <v>-9.384832842000002</v>
+      </c>
+      <c r="Q81">
+        <v>-7.006832842000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2389045476866906</v>
+      </c>
+      <c r="T81">
+        <v>4.250749259685288</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.0158486249595171</v>
+      </c>
+      <c r="W81">
+        <v>0.1807886075949367</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.06890706504137867</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.194736955014205</v>
+      </c>
+      <c r="C82">
+        <v>-43.22057195029969</v>
+      </c>
+      <c r="D82">
+        <v>23.71942804970032</v>
+      </c>
+      <c r="E82">
+        <v>36.16000000000001</v>
+      </c>
+      <c r="F82">
+        <v>72.16000000000001</v>
+      </c>
+      <c r="G82">
+        <v>5.22</v>
+      </c>
+      <c r="H82">
+        <v>54.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>3.28</v>
+      </c>
+      <c r="K82">
+        <v>2.378</v>
+      </c>
+      <c r="L82">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M82">
+        <v>13.255792</v>
+      </c>
+      <c r="N82">
+        <v>-12.353792</v>
+      </c>
+      <c r="O82">
+        <v>-2.841372160000001</v>
+      </c>
+      <c r="P82">
+        <v>-9.512419840000002</v>
+      </c>
+      <c r="Q82">
+        <v>-7.134419840000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2503847750710251</v>
+      </c>
+      <c r="T82">
+        <v>4.463286722669553</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.01565051714752314</v>
+      </c>
+      <c r="W82">
+        <v>0.180825</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.0680457267283614</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.196480955014205</v>
+      </c>
+      <c r="C83">
+        <v>-44.34357030195112</v>
+      </c>
+      <c r="D83">
+        <v>23.49842969804889</v>
+      </c>
+      <c r="E83">
+        <v>37.06200000000001</v>
+      </c>
+      <c r="F83">
+        <v>73.06200000000001</v>
+      </c>
+      <c r="G83">
+        <v>5.22</v>
+      </c>
+      <c r="H83">
+        <v>54.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>3.28</v>
+      </c>
+      <c r="K83">
+        <v>2.378</v>
+      </c>
+      <c r="L83">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M83">
+        <v>13.4214894</v>
+      </c>
+      <c r="N83">
+        <v>-12.5194894</v>
+      </c>
+      <c r="O83">
+        <v>-2.879482562</v>
+      </c>
+      <c r="P83">
+        <v>-9.640006838000001</v>
+      </c>
+      <c r="Q83">
+        <v>-7.262006838000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2630734474431844</v>
+      </c>
+      <c r="T83">
+        <v>4.698196550178477</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.0154573008864426</v>
+      </c>
+      <c r="W83">
+        <v>0.1808604938271605</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.06720565602801143</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.198224955014205</v>
+      </c>
+      <c r="C84">
+        <v>-45.46248850309779</v>
+      </c>
+      <c r="D84">
+        <v>23.28151149690223</v>
+      </c>
+      <c r="E84">
+        <v>37.96400000000001</v>
+      </c>
+      <c r="F84">
+        <v>73.96400000000001</v>
+      </c>
+      <c r="G84">
+        <v>5.22</v>
+      </c>
+      <c r="H84">
+        <v>54.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3.28</v>
+      </c>
+      <c r="K84">
+        <v>2.378</v>
+      </c>
+      <c r="L84">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M84">
+        <v>13.5871868</v>
+      </c>
+      <c r="N84">
+        <v>-12.6851868</v>
+      </c>
+      <c r="O84">
+        <v>-2.917592964000001</v>
+      </c>
+      <c r="P84">
+        <v>-9.767593836000003</v>
+      </c>
+      <c r="Q84">
+        <v>-7.389593836000003</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.277171972301139</v>
+      </c>
+      <c r="T84">
+        <v>4.959207469632837</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.01526879721709574</v>
+      </c>
+      <c r="W84">
+        <v>0.1808951219512195</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.06638607485693793</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.199968955014205</v>
+      </c>
+      <c r="C85">
+        <v>-46.57743851400844</v>
+      </c>
+      <c r="D85">
+        <v>23.06856148599157</v>
+      </c>
+      <c r="E85">
+        <v>38.86600000000001</v>
+      </c>
+      <c r="F85">
+        <v>74.86600000000001</v>
+      </c>
+      <c r="G85">
+        <v>5.22</v>
+      </c>
+      <c r="H85">
+        <v>54.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>3.28</v>
+      </c>
+      <c r="K85">
+        <v>2.378</v>
+      </c>
+      <c r="L85">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M85">
+        <v>13.7528842</v>
+      </c>
+      <c r="N85">
+        <v>-12.8508842</v>
+      </c>
+      <c r="O85">
+        <v>-2.955703366000001</v>
+      </c>
+      <c r="P85">
+        <v>-9.895180834000001</v>
+      </c>
+      <c r="Q85">
+        <v>-7.517180834000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2929291471423826</v>
+      </c>
+      <c r="T85">
+        <v>5.250925556081828</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01508483580484158</v>
+      </c>
+      <c r="W85">
+        <v>0.1809289156626506</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.06558624262974588</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.201712955014205</v>
+      </c>
+      <c r="C86">
+        <v>-47.68852823579249</v>
+      </c>
+      <c r="D86">
+        <v>22.85947176420752</v>
+      </c>
+      <c r="E86">
+        <v>39.768</v>
+      </c>
+      <c r="F86">
+        <v>75.768</v>
+      </c>
+      <c r="G86">
+        <v>5.22</v>
+      </c>
+      <c r="H86">
+        <v>54.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>3.28</v>
+      </c>
+      <c r="K86">
+        <v>2.378</v>
+      </c>
+      <c r="L86">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M86">
+        <v>13.9185816</v>
+      </c>
+      <c r="N86">
+        <v>-13.0165816</v>
+      </c>
+      <c r="O86">
+        <v>-2.993813768</v>
+      </c>
+      <c r="P86">
+        <v>-10.022767832</v>
+      </c>
+      <c r="Q86">
+        <v>-7.644767831999999</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3106559688387813</v>
+      </c>
+      <c r="T86">
+        <v>5.57910840333694</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01490525442621251</v>
+      </c>
+      <c r="W86">
+        <v>0.1809619047619048</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.06480545402701099</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.203456955014205</v>
+      </c>
+      <c r="C87">
+        <v>-48.79586169270553</v>
+      </c>
+      <c r="D87">
+        <v>22.65413830729447</v>
+      </c>
+      <c r="E87">
+        <v>40.67</v>
+      </c>
+      <c r="F87">
+        <v>76.67</v>
+      </c>
+      <c r="G87">
+        <v>5.22</v>
+      </c>
+      <c r="H87">
+        <v>54.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>3.28</v>
+      </c>
+      <c r="K87">
+        <v>2.378</v>
+      </c>
+      <c r="L87">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M87">
+        <v>14.084279</v>
+      </c>
+      <c r="N87">
+        <v>-13.182279</v>
+      </c>
+      <c r="O87">
+        <v>-3.03192417</v>
+      </c>
+      <c r="P87">
+        <v>-10.15035483</v>
+      </c>
+      <c r="Q87">
+        <v>-7.772354830000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3307463667613668</v>
+      </c>
+      <c r="T87">
+        <v>5.951048963559402</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.01472989849178648</v>
+      </c>
+      <c r="W87">
+        <v>0.1809941176470588</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.0640430369208107</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.205200955014205</v>
+      </c>
+      <c r="C88">
+        <v>-49.89953920471693</v>
+      </c>
+      <c r="D88">
+        <v>22.45246079528307</v>
+      </c>
+      <c r="E88">
+        <v>41.572</v>
+      </c>
+      <c r="F88">
+        <v>77.572</v>
+      </c>
+      <c r="G88">
+        <v>5.22</v>
+      </c>
+      <c r="H88">
+        <v>54.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>3.28</v>
+      </c>
+      <c r="K88">
+        <v>2.378</v>
+      </c>
+      <c r="L88">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M88">
+        <v>14.2499764</v>
+      </c>
+      <c r="N88">
+        <v>-13.3479764</v>
+      </c>
+      <c r="O88">
+        <v>-3.070034572</v>
+      </c>
+      <c r="P88">
+        <v>-10.277941828</v>
+      </c>
+      <c r="Q88">
+        <v>-7.899941827999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3537068215300359</v>
+      </c>
+      <c r="T88">
+        <v>6.376123889527931</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.01455862060234711</v>
+      </c>
+      <c r="W88">
+        <v>0.1810255813953488</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.06329835044498744</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.206944955014205</v>
+      </c>
+      <c r="C89">
+        <v>-50.99965755094115</v>
+      </c>
+      <c r="D89">
+        <v>22.25434244905885</v>
+      </c>
+      <c r="E89">
+        <v>42.474</v>
+      </c>
+      <c r="F89">
+        <v>78.474</v>
+      </c>
+      <c r="G89">
+        <v>5.22</v>
+      </c>
+      <c r="H89">
+        <v>54.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>3.28</v>
+      </c>
+      <c r="K89">
+        <v>2.378</v>
+      </c>
+      <c r="L89">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M89">
+        <v>14.4156738</v>
+      </c>
+      <c r="N89">
+        <v>-13.5136738</v>
+      </c>
+      <c r="O89">
+        <v>-3.108144974</v>
+      </c>
+      <c r="P89">
+        <v>-10.405528826</v>
+      </c>
+      <c r="Q89">
+        <v>-8.027528825999999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3801996539554232</v>
+      </c>
+      <c r="T89">
+        <v>6.866594957953156</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01439128013565346</v>
+      </c>
+      <c r="W89">
+        <v>0.1810563218390805</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.06257078319849341</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.208688955014205</v>
+      </c>
+      <c r="C90">
+        <v>-52.09631012449215</v>
+      </c>
+      <c r="D90">
+        <v>22.05968987550786</v>
+      </c>
+      <c r="E90">
+        <v>43.376</v>
+      </c>
+      <c r="F90">
+        <v>79.376</v>
+      </c>
+      <c r="G90">
+        <v>5.22</v>
+      </c>
+      <c r="H90">
+        <v>54.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>3.28</v>
+      </c>
+      <c r="K90">
+        <v>2.378</v>
+      </c>
+      <c r="L90">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M90">
+        <v>14.5813712</v>
+      </c>
+      <c r="N90">
+        <v>-13.6793712</v>
+      </c>
+      <c r="O90">
+        <v>-3.146255376</v>
+      </c>
+      <c r="P90">
+        <v>-10.533115824</v>
+      </c>
+      <c r="Q90">
+        <v>-8.155115824000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4111079584517086</v>
+      </c>
+      <c r="T90">
+        <v>7.438811204449254</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.01422774286138467</v>
+      </c>
+      <c r="W90">
+        <v>0.1810863636363637</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.06185975157123769</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2104329550142051</v>
+      </c>
+      <c r="C91">
+        <v>-53.18958707928143</v>
+      </c>
+      <c r="D91">
+        <v>21.86841292071858</v>
+      </c>
+      <c r="E91">
+        <v>44.27800000000001</v>
+      </c>
+      <c r="F91">
+        <v>80.27800000000001</v>
+      </c>
+      <c r="G91">
+        <v>5.22</v>
+      </c>
+      <c r="H91">
+        <v>54.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>3.28</v>
+      </c>
+      <c r="K91">
+        <v>2.378</v>
+      </c>
+      <c r="L91">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M91">
+        <v>14.7470686</v>
+      </c>
+      <c r="N91">
+        <v>-13.8450686</v>
+      </c>
+      <c r="O91">
+        <v>-3.184365778000001</v>
+      </c>
+      <c r="P91">
+        <v>-10.660702822</v>
+      </c>
+      <c r="Q91">
+        <v>-8.282702822000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4476359546745911</v>
+      </c>
+      <c r="T91">
+        <v>8.115066768490095</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01406788058204327</v>
+      </c>
+      <c r="W91">
+        <v>0.1811157303370787</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.0611646981827968</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.212176955014205</v>
+      </c>
+      <c r="C92">
+        <v>-54.27957546924451</v>
+      </c>
+      <c r="D92">
+        <v>21.6804245307555</v>
+      </c>
+      <c r="E92">
+        <v>45.18000000000001</v>
+      </c>
+      <c r="F92">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="G92">
+        <v>5.22</v>
+      </c>
+      <c r="H92">
+        <v>54.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>3.28</v>
+      </c>
+      <c r="K92">
+        <v>2.378</v>
+      </c>
+      <c r="L92">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M92">
+        <v>14.912766</v>
+      </c>
+      <c r="N92">
+        <v>-14.010766</v>
+      </c>
+      <c r="O92">
+        <v>-3.22247618</v>
+      </c>
+      <c r="P92">
+        <v>-10.78828982</v>
+      </c>
+      <c r="Q92">
+        <v>-8.410289819999999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4914695501420503</v>
+      </c>
+      <c r="T92">
+        <v>8.926573445339105</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.01391157079779834</v>
+      </c>
+      <c r="W92">
+        <v>0.1811444444444444</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.06048509042521022</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.213920955014205</v>
+      </c>
+      <c r="C93">
+        <v>-55.36635938044761</v>
+      </c>
+      <c r="D93">
+        <v>21.4956406195524</v>
+      </c>
+      <c r="E93">
+        <v>46.08200000000001</v>
+      </c>
+      <c r="F93">
+        <v>82.08200000000001</v>
+      </c>
+      <c r="G93">
+        <v>5.22</v>
+      </c>
+      <c r="H93">
+        <v>54.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>3.28</v>
+      </c>
+      <c r="K93">
+        <v>2.378</v>
+      </c>
+      <c r="L93">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M93">
+        <v>15.0784634</v>
+      </c>
+      <c r="N93">
+        <v>-14.1764634</v>
+      </c>
+      <c r="O93">
+        <v>-3.260586582000001</v>
+      </c>
+      <c r="P93">
+        <v>-10.915876818</v>
+      </c>
+      <c r="Q93">
+        <v>-8.537876818000003</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5450439446022781</v>
+      </c>
+      <c r="T93">
+        <v>9.918414939265674</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01375869639342693</v>
+      </c>
+      <c r="W93">
+        <v>0.1811725274725275</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.0598204191018562</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.215664955014205</v>
+      </c>
+      <c r="C94">
+        <v>-56.45002005649562</v>
+      </c>
+      <c r="D94">
+        <v>21.31397994350439</v>
+      </c>
+      <c r="E94">
+        <v>46.98400000000001</v>
+      </c>
+      <c r="F94">
+        <v>82.98400000000001</v>
+      </c>
+      <c r="G94">
+        <v>5.22</v>
+      </c>
+      <c r="H94">
+        <v>54.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>3.28</v>
+      </c>
+      <c r="K94">
+        <v>2.378</v>
+      </c>
+      <c r="L94">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M94">
+        <v>15.2441608</v>
+      </c>
+      <c r="N94">
+        <v>-14.3421608</v>
+      </c>
+      <c r="O94">
+        <v>-3.298696984000001</v>
+      </c>
+      <c r="P94">
+        <v>-11.043463816</v>
+      </c>
+      <c r="Q94">
+        <v>-8.665463816000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6120119376775631</v>
+      </c>
+      <c r="T94">
+        <v>11.15821680667389</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01360914534567229</v>
+      </c>
+      <c r="W94">
+        <v>0.1812</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.05917019715509686</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.217408955014205</v>
+      </c>
+      <c r="C95">
+        <v>-57.53063601763451</v>
+      </c>
+      <c r="D95">
+        <v>21.1353639823655</v>
+      </c>
+      <c r="E95">
+        <v>47.88600000000001</v>
+      </c>
+      <c r="F95">
+        <v>83.88600000000001</v>
+      </c>
+      <c r="G95">
+        <v>5.22</v>
+      </c>
+      <c r="H95">
+        <v>54.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>3.28</v>
+      </c>
+      <c r="K95">
+        <v>2.378</v>
+      </c>
+      <c r="L95">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M95">
+        <v>15.4098582</v>
+      </c>
+      <c r="N95">
+        <v>-14.5078582</v>
+      </c>
+      <c r="O95">
+        <v>-3.336807386</v>
+      </c>
+      <c r="P95">
+        <v>-11.171050814</v>
+      </c>
+      <c r="Q95">
+        <v>-8.793050814000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6981136430600722</v>
+      </c>
+      <c r="T95">
+        <v>12.75224777905587</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.01346281044948227</v>
+      </c>
+      <c r="W95">
+        <v>0.1812268817204301</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.05853395847600995</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.219152955014205</v>
+      </c>
+      <c r="C96">
+        <v>-58.60828317391473</v>
+      </c>
+      <c r="D96">
+        <v>20.95971682608528</v>
+      </c>
+      <c r="E96">
+        <v>48.78800000000001</v>
+      </c>
+      <c r="F96">
+        <v>84.78800000000001</v>
+      </c>
+      <c r="G96">
+        <v>5.22</v>
+      </c>
+      <c r="H96">
+        <v>54.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>3.28</v>
+      </c>
+      <c r="K96">
+        <v>2.378</v>
+      </c>
+      <c r="L96">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M96">
+        <v>15.5755556</v>
+      </c>
+      <c r="N96">
+        <v>-14.6735556</v>
+      </c>
+      <c r="O96">
+        <v>-3.374917788000001</v>
+      </c>
+      <c r="P96">
+        <v>-11.298637812</v>
+      </c>
+      <c r="Q96">
+        <v>-8.920637812000002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8129159169034178</v>
+      </c>
+      <c r="T96">
+        <v>14.87762240889852</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01331958906172182</v>
+      </c>
+      <c r="W96">
+        <v>0.1812531914893617</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.05791125679009479</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2208969550142051</v>
+      </c>
+      <c r="C97">
+        <v>-59.68303493275852</v>
+      </c>
+      <c r="D97">
+        <v>20.78696506724149</v>
+      </c>
+      <c r="E97">
+        <v>49.69000000000001</v>
+      </c>
+      <c r="F97">
+        <v>85.69000000000001</v>
+      </c>
+      <c r="G97">
+        <v>5.22</v>
+      </c>
+      <c r="H97">
+        <v>54.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>3.28</v>
+      </c>
+      <c r="K97">
+        <v>2.378</v>
+      </c>
+      <c r="L97">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M97">
+        <v>15.741253</v>
+      </c>
+      <c r="N97">
+        <v>-14.839253</v>
+      </c>
+      <c r="O97">
+        <v>-3.413028190000001</v>
+      </c>
+      <c r="P97">
+        <v>-11.42622481</v>
+      </c>
+      <c r="Q97">
+        <v>-9.048224810000002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9736391002841017</v>
+      </c>
+      <c r="T97">
+        <v>17.85314689067823</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01317938286107211</v>
+      </c>
+      <c r="W97">
+        <v>0.1812789473684211</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.05730166461335695</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.222640955014205</v>
+      </c>
+      <c r="C98">
+        <v>-60.75496230125113</v>
+      </c>
+      <c r="D98">
+        <v>20.61703769874887</v>
+      </c>
+      <c r="E98">
+        <v>50.592</v>
+      </c>
+      <c r="F98">
+        <v>86.592</v>
+      </c>
+      <c r="G98">
+        <v>5.22</v>
+      </c>
+      <c r="H98">
+        <v>54.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>3.28</v>
+      </c>
+      <c r="K98">
+        <v>2.378</v>
+      </c>
+      <c r="L98">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M98">
+        <v>15.9069504</v>
+      </c>
+      <c r="N98">
+        <v>-15.0049504</v>
+      </c>
+      <c r="O98">
+        <v>-3.451138592</v>
+      </c>
+      <c r="P98">
+        <v>-11.553811808</v>
+      </c>
+      <c r="Q98">
+        <v>-9.175811807999999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.214723875355125</v>
+      </c>
+      <c r="T98">
+        <v>22.31643361334774</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01304209762293595</v>
+      </c>
+      <c r="W98">
+        <v>0.1813041666666667</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.05670477227363457</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.224384955014205</v>
+      </c>
+      <c r="C99">
+        <v>-61.82413398345571</v>
+      </c>
+      <c r="D99">
+        <v>20.44986601654429</v>
+      </c>
+      <c r="E99">
+        <v>51.494</v>
+      </c>
+      <c r="F99">
+        <v>87.494</v>
+      </c>
+      <c r="G99">
+        <v>5.22</v>
+      </c>
+      <c r="H99">
+        <v>54.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>3.28</v>
+      </c>
+      <c r="K99">
+        <v>2.378</v>
+      </c>
+      <c r="L99">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M99">
+        <v>16.0726478</v>
+      </c>
+      <c r="N99">
+        <v>-15.1706478</v>
+      </c>
+      <c r="O99">
+        <v>-3.489248994</v>
+      </c>
+      <c r="P99">
+        <v>-11.681398806</v>
+      </c>
+      <c r="Q99">
+        <v>-9.303398805999997</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.616531833806833</v>
+      </c>
+      <c r="T99">
+        <v>29.75524481779699</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01290764300826651</v>
+      </c>
+      <c r="W99">
+        <v>0.1813288659793814</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.05612018699246313</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.226128955014205</v>
+      </c>
+      <c r="C100">
+        <v>-62.89061647303149</v>
+      </c>
+      <c r="D100">
+        <v>20.28538352696851</v>
+      </c>
+      <c r="E100">
+        <v>52.396</v>
+      </c>
+      <c r="F100">
+        <v>88.396</v>
+      </c>
+      <c r="G100">
+        <v>5.22</v>
+      </c>
+      <c r="H100">
+        <v>54.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>3.28</v>
+      </c>
+      <c r="K100">
+        <v>2.378</v>
+      </c>
+      <c r="L100">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M100">
+        <v>16.2383452</v>
+      </c>
+      <c r="N100">
+        <v>-15.3363452</v>
+      </c>
+      <c r="O100">
+        <v>-3.527359396</v>
+      </c>
+      <c r="P100">
+        <v>-11.808985804</v>
+      </c>
+      <c r="Q100">
+        <v>-9.430985804000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.420147750710249</v>
+      </c>
+      <c r="T100">
+        <v>44.63286722669548</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01277593236532501</v>
+      </c>
+      <c r="W100">
+        <v>0.1813530612244898</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.05554753202315232</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.227872955014205</v>
+      </c>
+      <c r="C101">
+        <v>-63.95447414141839</v>
+      </c>
+      <c r="D101">
+        <v>20.12352585858162</v>
+      </c>
+      <c r="E101">
+        <v>53.298</v>
+      </c>
+      <c r="F101">
+        <v>89.298</v>
+      </c>
+      <c r="G101">
+        <v>5.22</v>
+      </c>
+      <c r="H101">
+        <v>54.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>3.28</v>
+      </c>
+      <c r="K101">
+        <v>2.378</v>
+      </c>
+      <c r="L101">
+        <v>0.9020000000000001</v>
+      </c>
+      <c r="M101">
+        <v>16.4040426</v>
+      </c>
+      <c r="N101">
+        <v>-15.5020426</v>
+      </c>
+      <c r="O101">
+        <v>-3.565469798</v>
+      </c>
+      <c r="P101">
+        <v>-11.936572802</v>
+      </c>
+      <c r="Q101">
+        <v>-9.558572801999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.830995501420498</v>
+      </c>
+      <c r="T101">
+        <v>89.26573445339096</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01264688254345304</v>
+      </c>
+      <c r="W101">
+        <v>0.1813767676767677</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.05498644584110024</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
